--- a/backend/data/test_status.xlsx
+++ b/backend/data/test_status.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,1259 +419,6337 @@
         <v>Test Case</v>
       </c>
       <c r="F1" t="str">
-        <v>Case ID</v>
+        <v>Test ID</v>
       </c>
       <c r="G1" t="str">
+        <v>Scope</v>
+      </c>
+      <c r="H1" t="str">
         <v>Status</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Last modified</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Modified User</v>
       </c>
+      <c r="K1" t="str">
+        <v>VT Volume</v>
+      </c>
+      <c r="L1" t="str">
+        <v>VT Start DateTime</v>
+      </c>
+      <c r="M1" t="str">
+        <v>VT End DateTime</v>
+      </c>
+      <c r="N1" t="str">
+        <v>CH Volume</v>
+      </c>
+      <c r="O1" t="str">
+        <v>CH Date</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1001</v>
+      <c r="A2" t="str">
+        <v>BRH</v>
       </c>
       <c r="B2" t="str">
         <v>Phase 1</v>
       </c>
       <c r="C2" t="str">
-        <v>A</v>
+        <v>AIB</v>
       </c>
       <c r="D2" t="str">
-        <v>A101</v>
+        <v>AIB101</v>
       </c>
       <c r="E2" t="str">
-        <v>Power On</v>
+        <v>Depal</v>
+      </c>
+      <c r="F2" t="str">
+        <v>AIB-1001</v>
       </c>
       <c r="G2" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>PASS</v>
       </c>
       <c r="I2" t="str">
+        <v>8/4/2025, 11:43:12 PM</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1001</v>
+      <c r="A3" t="str">
+        <v>BRH</v>
       </c>
       <c r="B3" t="str">
         <v>Phase 1</v>
       </c>
       <c r="C3" t="str">
-        <v>A</v>
+        <v>AIB</v>
       </c>
       <c r="D3" t="str">
-        <v>A101</v>
+        <v>AIB101</v>
       </c>
       <c r="E3" t="str">
-        <v>Belt speed</v>
+        <v>BSSR</v>
+      </c>
+      <c r="F3" t="str">
+        <v>AIB-1002</v>
       </c>
       <c r="G3" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>PASS</v>
       </c>
       <c r="I3" t="str">
+        <v>8/4/2025, 11:43:13 PM</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>1001</v>
+      <c r="A4" t="str">
+        <v>BRH</v>
       </c>
       <c r="B4" t="str">
         <v>Phase 1</v>
       </c>
       <c r="C4" t="str">
-        <v>A</v>
+        <v>AIB</v>
       </c>
       <c r="D4" t="str">
-        <v>A101</v>
+        <v>AIB101</v>
       </c>
       <c r="E4" t="str">
-        <v>Messaging</v>
+        <v>Case Tipper</v>
+      </c>
+      <c r="F4" t="str">
+        <v>AIB-1003</v>
       </c>
       <c r="G4" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>PASS</v>
       </c>
       <c r="I4" t="str">
+        <v>8/4/2025, 11:43:15 PM</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B5" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C5" t="str">
-        <v>B</v>
+        <v>AIB</v>
       </c>
       <c r="D5" t="str">
-        <v>B201</v>
+        <v>AIB101</v>
       </c>
       <c r="E5" t="str">
-        <v>Power On</v>
+        <v>CIS</v>
       </c>
       <c r="F5" t="str">
-        <v>B1001</v>
+        <v>AIB-1004</v>
       </c>
       <c r="G5" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H5" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>PASS</v>
       </c>
       <c r="I5" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:43:17 PM</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B6" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C6" t="str">
-        <v>B</v>
+        <v>AIB</v>
       </c>
       <c r="D6" t="str">
-        <v>B201</v>
+        <v>AIB101</v>
       </c>
       <c r="E6" t="str">
-        <v>Motors</v>
+        <v>Reject line</v>
       </c>
       <c r="F6" t="str">
-        <v>B1002</v>
+        <v>AIB-1005</v>
       </c>
       <c r="G6" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H6" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>PASS</v>
       </c>
       <c r="I6" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:43:04 PM</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B7" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C7" t="str">
-        <v>B</v>
+        <v>AIB</v>
       </c>
       <c r="D7" t="str">
-        <v>B201</v>
+        <v>AIB101</v>
       </c>
       <c r="E7" t="str">
-        <v>Tipper</v>
+        <v>E-Stop</v>
       </c>
       <c r="F7" t="str">
-        <v>B1003</v>
+        <v>SA-1001</v>
       </c>
       <c r="G7" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="H7" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>BLOCKED</v>
       </c>
       <c r="I7" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:43:07 PM</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B8" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C8" t="str">
-        <v>B</v>
+        <v>AIB</v>
       </c>
       <c r="D8" t="str">
-        <v>B201</v>
+        <v>AIB101</v>
       </c>
       <c r="E8" t="str">
-        <v>Depal</v>
+        <v>Interlocks</v>
       </c>
       <c r="F8" t="str">
-        <v>B1004</v>
+        <v>SA-1002</v>
       </c>
       <c r="G8" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="H8" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>PASS</v>
       </c>
       <c r="I8" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:43:09 PM</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B9" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C9" t="str">
-        <v>B</v>
+        <v>AIB</v>
       </c>
       <c r="D9" t="str">
-        <v>B201</v>
+        <v>AIB101</v>
       </c>
       <c r="E9" t="str">
-        <v>Backup</v>
+        <v>Cell Hardening - 1</v>
       </c>
       <c r="F9" t="str">
-        <v>B1005</v>
+        <v>CH-1001</v>
       </c>
       <c r="G9" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H9" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="I9" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:43:01 PM</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v>32</v>
+      </c>
+      <c r="O9" t="str">
+        <v>2025-08-02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B10" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C10" t="str">
-        <v>B</v>
+        <v>AIB</v>
       </c>
       <c r="D10" t="str">
-        <v>B201</v>
+        <v>AIB101</v>
       </c>
       <c r="E10" t="str">
-        <v>Printer</v>
+        <v>Cell Hardening - 2</v>
       </c>
       <c r="F10" t="str">
-        <v>B1006</v>
+        <v>CH-1002</v>
       </c>
       <c r="G10" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H10" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="I10" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:42:59 PM</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v>4435</v>
+      </c>
+      <c r="O10" t="str">
+        <v>2025-08-03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B11" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C11" t="str">
-        <v>B</v>
+        <v>AIB</v>
       </c>
       <c r="D11" t="str">
-        <v>B201</v>
+        <v>AIB101</v>
       </c>
       <c r="E11" t="str">
-        <v>Cameras</v>
+        <v>Cell Hardening - 3</v>
       </c>
       <c r="F11" t="str">
-        <v>B1007</v>
+        <v>CH-1003</v>
       </c>
       <c r="G11" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H11" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="I11" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:42:57 PM</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v>423</v>
+      </c>
+      <c r="O11" t="str">
+        <v>2025-08-04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B12" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C12" t="str">
-        <v>C</v>
+        <v>AIB</v>
       </c>
       <c r="D12" t="str">
-        <v>C301</v>
+        <v>AIB101</v>
       </c>
       <c r="E12" t="str">
-        <v>pallet height</v>
+        <v>Volume Test</v>
       </c>
       <c r="F12" t="str">
-        <v>C1001</v>
+        <v>VT-0001</v>
       </c>
       <c r="G12" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H12" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>FAIL</v>
       </c>
       <c r="I12" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:43:06 PM</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K12" t="str">
+        <v>3234</v>
+      </c>
+      <c r="L12" t="str">
+        <v>2025-08-03T23:42</v>
+      </c>
+      <c r="M12" t="str">
+        <v>2025-08-03T21:42</v>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B13" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C13" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D13" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E13" t="str">
-        <v>length</v>
+        <v>Case Labeler</v>
       </c>
       <c r="F13" t="str">
-        <v>C1002</v>
+        <v>AOB-1001</v>
       </c>
       <c r="G13" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H13" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I13" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B14" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C14" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D14" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E14" t="str">
-        <v>width</v>
+        <v>Case Labeler - D1</v>
       </c>
       <c r="F14" t="str">
-        <v>C1003</v>
+        <v>AOB-1002</v>
       </c>
       <c r="G14" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H14" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I14" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B15" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C15" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D15" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E15" t="str">
-        <v>slip sheet</v>
+        <v>Case Labeler - D2</v>
       </c>
       <c r="F15" t="str">
-        <v>C1004</v>
+        <v>AOB-1003</v>
       </c>
       <c r="G15" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H15" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I15" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B16" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C16" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D16" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E16" t="str">
-        <v>top sheet</v>
+        <v>Manual Palletization</v>
       </c>
       <c r="F16" t="str">
-        <v>C1005</v>
+        <v>AOB-1004</v>
       </c>
       <c r="G16" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H16" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I16" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B17" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C17" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D17" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E17" t="str">
-        <v>bottom sheet</v>
+        <v>Fallen Case</v>
       </c>
       <c r="F17" t="str">
-        <v>C1006</v>
+        <v>AOB-1005</v>
       </c>
       <c r="G17" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H17" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I17" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B18" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C18" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D18" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E18" t="str">
-        <v>Cameras</v>
+        <v>PBA</v>
       </c>
       <c r="F18" t="str">
-        <v>C1007</v>
+        <v>AOB-1006</v>
       </c>
       <c r="G18" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H18" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I18" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B19" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C19" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D19" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E19" t="str">
-        <v>Reject</v>
+        <v>Pallet PNA</v>
       </c>
       <c r="F19" t="str">
-        <v>C1008</v>
+        <v>AOB-1007</v>
       </c>
       <c r="G19" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H19" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I19" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B20" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C20" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D20" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E20" t="str">
-        <v>Motors</v>
+        <v>Backup printer</v>
       </c>
       <c r="F20" t="str">
-        <v>C1009</v>
+        <v>AOB-1008</v>
       </c>
       <c r="G20" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H20" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I20" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B21" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C21" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D21" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E21" t="str">
-        <v>layers</v>
+        <v>E-Stop</v>
       </c>
       <c r="F21" t="str">
-        <v>C1010</v>
+        <v>SA-1001</v>
       </c>
       <c r="G21" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="H21" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I21" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B22" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C22" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D22" t="str">
-        <v>C301</v>
+        <v>AOB102</v>
       </c>
       <c r="E22" t="str">
-        <v>messaging</v>
+        <v>Interlocks</v>
       </c>
       <c r="F22" t="str">
-        <v>C1011</v>
+        <v>SA-1002</v>
       </c>
       <c r="G22" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="H22" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I22" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B23" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C23" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D23" t="str">
-        <v>C302</v>
+        <v>AOB102</v>
       </c>
       <c r="E23" t="str">
-        <v>pallet height</v>
+        <v>Cell Hardening - 1</v>
       </c>
       <c r="F23" t="str">
-        <v>C1001</v>
+        <v>CH-1001</v>
       </c>
       <c r="G23" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H23" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I23" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B24" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C24" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D24" t="str">
-        <v>C302</v>
+        <v>AOB102</v>
       </c>
       <c r="E24" t="str">
-        <v>length</v>
+        <v>Cell Hardening - 2</v>
       </c>
       <c r="F24" t="str">
-        <v>C1002</v>
+        <v>CH-1002</v>
       </c>
       <c r="G24" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H24" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I24" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B25" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C25" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D25" t="str">
-        <v>C302</v>
+        <v>AOB102</v>
       </c>
       <c r="E25" t="str">
-        <v>width</v>
+        <v>Cell Hardening - 3</v>
       </c>
       <c r="F25" t="str">
-        <v>C1003</v>
+        <v>CH-1003</v>
       </c>
       <c r="G25" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H25" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I25" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B26" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C26" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D26" t="str">
-        <v>C302</v>
+        <v>AOB102</v>
       </c>
       <c r="E26" t="str">
-        <v>slip sheet</v>
+        <v>Volume Test</v>
       </c>
       <c r="F26" t="str">
-        <v>C1004</v>
+        <v>VT-0001</v>
       </c>
       <c r="G26" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H26" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I26" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B27" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C27" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D27" t="str">
-        <v>C302</v>
+        <v>AOB103</v>
       </c>
       <c r="E27" t="str">
-        <v>top sheet</v>
+        <v>Case Labeler</v>
       </c>
       <c r="F27" t="str">
-        <v>C1005</v>
+        <v>AOB-1001</v>
       </c>
       <c r="G27" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H27" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I27" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B28" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C28" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D28" t="str">
-        <v>C302</v>
+        <v>AOB103</v>
       </c>
       <c r="E28" t="str">
-        <v>bottom sheet</v>
+        <v>Case Labeler - D1</v>
       </c>
       <c r="F28" t="str">
-        <v>C1006</v>
+        <v>AOB-1002</v>
       </c>
       <c r="G28" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H28" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I28" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B29" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C29" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D29" t="str">
-        <v>C302</v>
+        <v>AOB103</v>
       </c>
       <c r="E29" t="str">
-        <v>Cameras</v>
+        <v>Case Labeler - D2</v>
       </c>
       <c r="F29" t="str">
-        <v>C1007</v>
+        <v>AOB-1003</v>
       </c>
       <c r="G29" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H29" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I29" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B30" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C30" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D30" t="str">
-        <v>C302</v>
+        <v>AOB103</v>
       </c>
       <c r="E30" t="str">
-        <v>Reject</v>
+        <v>Manual Palletization</v>
       </c>
       <c r="F30" t="str">
-        <v>C1008</v>
+        <v>AOB-1004</v>
       </c>
       <c r="G30" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H30" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I30" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B31" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C31" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D31" t="str">
-        <v>C302</v>
+        <v>AOB103</v>
       </c>
       <c r="E31" t="str">
-        <v>Motors</v>
+        <v>Fallen Case</v>
       </c>
       <c r="F31" t="str">
-        <v>C1009</v>
+        <v>AOB-1005</v>
       </c>
       <c r="G31" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H31" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I31" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B32" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C32" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D32" t="str">
-        <v>C302</v>
+        <v>AOB103</v>
       </c>
       <c r="E32" t="str">
-        <v>layers</v>
+        <v>PBA</v>
       </c>
       <c r="F32" t="str">
-        <v>C1010</v>
+        <v>AOB-1006</v>
       </c>
       <c r="G32" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H32" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I32" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B33" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C33" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D33" t="str">
-        <v>C302</v>
+        <v>AOB103</v>
       </c>
       <c r="E33" t="str">
-        <v>messaging</v>
+        <v>Pallet PNA</v>
       </c>
       <c r="F33" t="str">
-        <v>C1011</v>
+        <v>AOB-1007</v>
       </c>
       <c r="G33" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H33" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I33" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B34" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C34" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D34" t="str">
-        <v>C303</v>
+        <v>AOB103</v>
       </c>
       <c r="E34" t="str">
-        <v>pallet height</v>
+        <v>Backup printer</v>
       </c>
       <c r="F34" t="str">
-        <v>C1001</v>
+        <v>AOB-1008</v>
       </c>
       <c r="G34" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H34" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I34" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B35" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C35" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D35" t="str">
-        <v>C303</v>
+        <v>AOB103</v>
       </c>
       <c r="E35" t="str">
-        <v>length</v>
+        <v>E-Stop</v>
       </c>
       <c r="F35" t="str">
-        <v>C1002</v>
+        <v>SA-1001</v>
       </c>
       <c r="G35" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="H35" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I35" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B36" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C36" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D36" t="str">
-        <v>C303</v>
+        <v>AOB103</v>
       </c>
       <c r="E36" t="str">
-        <v>width</v>
+        <v>Interlocks</v>
       </c>
       <c r="F36" t="str">
-        <v>C1003</v>
+        <v>SA-1002</v>
       </c>
       <c r="G36" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="H36" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I36" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B37" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C37" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D37" t="str">
-        <v>C303</v>
+        <v>AOB103</v>
       </c>
       <c r="E37" t="str">
-        <v>slip sheet</v>
+        <v>Cell Hardening - 1</v>
       </c>
       <c r="F37" t="str">
-        <v>C1004</v>
+        <v>CH-1001</v>
       </c>
       <c r="G37" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H37" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I37" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B38" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C38" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D38" t="str">
-        <v>C303</v>
+        <v>AOB103</v>
       </c>
       <c r="E38" t="str">
-        <v>top sheet</v>
+        <v>Cell Hardening - 2</v>
       </c>
       <c r="F38" t="str">
-        <v>C1005</v>
+        <v>CH-1002</v>
       </c>
       <c r="G38" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H38" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I38" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B39" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C39" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D39" t="str">
-        <v>C303</v>
+        <v>AOB103</v>
       </c>
       <c r="E39" t="str">
-        <v>bottom sheet</v>
+        <v>Cell Hardening - 3</v>
       </c>
       <c r="F39" t="str">
-        <v>C1006</v>
+        <v>CH-1003</v>
       </c>
       <c r="G39" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H39" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I39" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B40" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C40" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D40" t="str">
-        <v>C303</v>
+        <v>AOB103</v>
       </c>
       <c r="E40" t="str">
-        <v>Cameras</v>
+        <v>Volume Test</v>
       </c>
       <c r="F40" t="str">
-        <v>C1007</v>
+        <v>VT-0001</v>
       </c>
       <c r="G40" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H40" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I40" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v/>
+      </c>
+      <c r="M40" t="str">
+        <v/>
+      </c>
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B41" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C41" t="str">
-        <v>C</v>
+        <v>AIB</v>
       </c>
       <c r="D41" t="str">
-        <v>C303</v>
+        <v>SYSTEM</v>
       </c>
       <c r="E41" t="str">
-        <v>Reject</v>
+        <v>Messaging</v>
       </c>
       <c r="F41" t="str">
-        <v>C1008</v>
+        <v>AIB-SYS-101</v>
       </c>
       <c r="G41" t="str">
-        <v>NOT RUN</v>
+        <v>System</v>
       </c>
       <c r="H41" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I41" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <v/>
+      </c>
+      <c r="N41" t="str">
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B42" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C42" t="str">
-        <v>C</v>
+        <v>AIB</v>
       </c>
       <c r="D42" t="str">
-        <v>C303</v>
+        <v>SYSTEM</v>
       </c>
       <c r="E42" t="str">
-        <v>Motors</v>
+        <v>LPN</v>
       </c>
       <c r="F42" t="str">
-        <v>C1009</v>
+        <v>AIB-SYS-102</v>
       </c>
       <c r="G42" t="str">
-        <v>NOT RUN</v>
+        <v>System</v>
       </c>
       <c r="H42" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I42" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>BCD12</v>
+        <v>BRH</v>
       </c>
       <c r="B43" t="str">
-        <v>1.2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C43" t="str">
-        <v>C</v>
+        <v>AOB</v>
       </c>
       <c r="D43" t="str">
-        <v>C303</v>
+        <v>SYSTEM</v>
       </c>
       <c r="E43" t="str">
-        <v>layers</v>
+        <v>Messaging</v>
       </c>
       <c r="F43" t="str">
-        <v>C1010</v>
+        <v>AOB-SYS-101</v>
       </c>
       <c r="G43" t="str">
-        <v>NOT RUN</v>
+        <v>System</v>
       </c>
       <c r="H43" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I43" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:40:32 PM</v>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <v/>
+      </c>
+      <c r="M43" t="str">
+        <v/>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>BCD12</v>
+        <v>MID</v>
       </c>
       <c r="B44" t="str">
-        <v>1.2</v>
+        <v>Phase 2</v>
       </c>
       <c r="C44" t="str">
-        <v>C</v>
+        <v>AIB</v>
       </c>
       <c r="D44" t="str">
-        <v>C303</v>
+        <v>AIB201</v>
       </c>
       <c r="E44" t="str">
-        <v>messaging</v>
+        <v>Depal</v>
       </c>
       <c r="F44" t="str">
-        <v>C1011</v>
+        <v>AIB-1001</v>
       </c>
       <c r="G44" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="H44" t="str">
-        <v>8/4/2025, 9:41:52 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="I44" t="str">
-        <v>System User</v>
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C45" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D45" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E45" t="str">
+        <v>BSSR</v>
+      </c>
+      <c r="F45" t="str">
+        <v>AIB-1002</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H45" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I45" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C46" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D46" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Case Tipper</v>
+      </c>
+      <c r="F46" t="str">
+        <v>AIB-1003</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H46" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I46" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C47" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D47" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E47" t="str">
+        <v>CIS</v>
+      </c>
+      <c r="F47" t="str">
+        <v>AIB-1004</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H47" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I47" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C48" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D48" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Reject line</v>
+      </c>
+      <c r="F48" t="str">
+        <v>AIB-1005</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H48" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I48" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C49" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D49" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E49" t="str">
+        <v>E-Stop</v>
+      </c>
+      <c r="F49" t="str">
+        <v>SA-1001</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H49" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I49" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <v/>
+      </c>
+      <c r="N49" t="str">
+        <v/>
+      </c>
+      <c r="O49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C50" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D50" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Interlocks</v>
+      </c>
+      <c r="F50" t="str">
+        <v>SA-1002</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H50" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I50" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <v/>
+      </c>
+      <c r="O50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C51" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D51" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Cell Hardening - 1</v>
+      </c>
+      <c r="F51" t="str">
+        <v>CH-1001</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H51" t="str">
+        <v>DATA_ENTRY</v>
+      </c>
+      <c r="I51" t="str">
+        <v>8/4/2025, 11:44:08 PM</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K51" t="str">
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <v/>
+      </c>
+      <c r="N51" t="str">
+        <v>32</v>
+      </c>
+      <c r="O51" t="str">
+        <v>2025-08-01</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C52" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D52" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Cell Hardening - 2</v>
+      </c>
+      <c r="F52" t="str">
+        <v>CH-1002</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H52" t="str">
+        <v>DATA_ENTRY</v>
+      </c>
+      <c r="I52" t="str">
+        <v>8/4/2025, 11:48:55 PM</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <v/>
+      </c>
+      <c r="M52" t="str">
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <v>343</v>
+      </c>
+      <c r="O52" t="str">
+        <v>2025-08-02</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D53" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Cell Hardening - 3</v>
+      </c>
+      <c r="F53" t="str">
+        <v>CH-1003</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H53" t="str">
+        <v>DATA_ENTRY</v>
+      </c>
+      <c r="I53" t="str">
+        <v>8/4/2025, 11:48:57 PM</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K53" t="str">
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <v/>
+      </c>
+      <c r="M53" t="str">
+        <v/>
+      </c>
+      <c r="N53" t="str">
+        <v>2433</v>
+      </c>
+      <c r="O53" t="str">
+        <v>2025-08-03</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C54" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D54" t="str">
+        <v>AIB201</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Volume Test</v>
+      </c>
+      <c r="F54" t="str">
+        <v>VT-0001</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H54" t="str">
+        <v>DATA_ENTRY</v>
+      </c>
+      <c r="I54" t="str">
+        <v>8/4/2025, 11:49:05 PM</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="K54" t="str">
+        <v>4234</v>
+      </c>
+      <c r="L54" t="str">
+        <v>2025-08-03T23:49</v>
+      </c>
+      <c r="M54" t="str">
+        <v>2025-08-03T18:49</v>
+      </c>
+      <c r="N54" t="str">
+        <v/>
+      </c>
+      <c r="O54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C55" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D55" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Case Labeler</v>
+      </c>
+      <c r="F55" t="str">
+        <v>AOB-1001</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H55" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I55" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <v/>
+      </c>
+      <c r="M55" t="str">
+        <v/>
+      </c>
+      <c r="N55" t="str">
+        <v/>
+      </c>
+      <c r="O55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C56" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D56" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Case Labeler - D1</v>
+      </c>
+      <c r="F56" t="str">
+        <v>AOB-1002</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H56" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I56" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <v/>
+      </c>
+      <c r="M56" t="str">
+        <v/>
+      </c>
+      <c r="N56" t="str">
+        <v/>
+      </c>
+      <c r="O56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C57" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D57" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Case Labeler - D2</v>
+      </c>
+      <c r="F57" t="str">
+        <v>AOB-1003</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H57" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I57" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <v/>
+      </c>
+      <c r="M57" t="str">
+        <v/>
+      </c>
+      <c r="N57" t="str">
+        <v/>
+      </c>
+      <c r="O57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C58" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D58" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Manual Palletization</v>
+      </c>
+      <c r="F58" t="str">
+        <v>AOB-1004</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H58" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I58" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <v/>
+      </c>
+      <c r="L58" t="str">
+        <v/>
+      </c>
+      <c r="M58" t="str">
+        <v/>
+      </c>
+      <c r="N58" t="str">
+        <v/>
+      </c>
+      <c r="O58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C59" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D59" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Fallen Case</v>
+      </c>
+      <c r="F59" t="str">
+        <v>AOB-1005</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H59" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I59" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <v/>
+      </c>
+      <c r="L59" t="str">
+        <v/>
+      </c>
+      <c r="M59" t="str">
+        <v/>
+      </c>
+      <c r="N59" t="str">
+        <v/>
+      </c>
+      <c r="O59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C60" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D60" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E60" t="str">
+        <v>PBA</v>
+      </c>
+      <c r="F60" t="str">
+        <v>AOB-1006</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H60" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I60" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <v/>
+      </c>
+      <c r="L60" t="str">
+        <v/>
+      </c>
+      <c r="M60" t="str">
+        <v/>
+      </c>
+      <c r="N60" t="str">
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C61" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D61" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Pallet PNA</v>
+      </c>
+      <c r="F61" t="str">
+        <v>AOB-1007</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H61" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I61" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <v/>
+      </c>
+      <c r="M61" t="str">
+        <v/>
+      </c>
+      <c r="N61" t="str">
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C62" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D62" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Backup printer</v>
+      </c>
+      <c r="F62" t="str">
+        <v>AOB-1008</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H62" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I62" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <v/>
+      </c>
+      <c r="L62" t="str">
+        <v/>
+      </c>
+      <c r="M62" t="str">
+        <v/>
+      </c>
+      <c r="N62" t="str">
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C63" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D63" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E63" t="str">
+        <v>E-Stop</v>
+      </c>
+      <c r="F63" t="str">
+        <v>SA-1001</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H63" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I63" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <v/>
+      </c>
+      <c r="M63" t="str">
+        <v/>
+      </c>
+      <c r="N63" t="str">
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C64" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D64" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Interlocks</v>
+      </c>
+      <c r="F64" t="str">
+        <v>SA-1002</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H64" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I64" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <v/>
+      </c>
+      <c r="L64" t="str">
+        <v/>
+      </c>
+      <c r="M64" t="str">
+        <v/>
+      </c>
+      <c r="N64" t="str">
+        <v/>
+      </c>
+      <c r="O64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C65" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D65" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Cell Hardening - 1</v>
+      </c>
+      <c r="F65" t="str">
+        <v>CH-1001</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H65" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I65" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <v/>
+      </c>
+      <c r="L65" t="str">
+        <v/>
+      </c>
+      <c r="M65" t="str">
+        <v/>
+      </c>
+      <c r="N65" t="str">
+        <v/>
+      </c>
+      <c r="O65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C66" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D66" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Cell Hardening - 2</v>
+      </c>
+      <c r="F66" t="str">
+        <v>CH-1002</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H66" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I66" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <v/>
+      </c>
+      <c r="L66" t="str">
+        <v/>
+      </c>
+      <c r="M66" t="str">
+        <v/>
+      </c>
+      <c r="N66" t="str">
+        <v/>
+      </c>
+      <c r="O66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C67" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D67" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Cell Hardening - 3</v>
+      </c>
+      <c r="F67" t="str">
+        <v>CH-1003</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H67" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I67" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J67" t="str">
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <v/>
+      </c>
+      <c r="L67" t="str">
+        <v/>
+      </c>
+      <c r="M67" t="str">
+        <v/>
+      </c>
+      <c r="N67" t="str">
+        <v/>
+      </c>
+      <c r="O67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C68" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D68" t="str">
+        <v>AOB202</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Volume Test</v>
+      </c>
+      <c r="F68" t="str">
+        <v>VT-0001</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H68" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I68" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <v/>
+      </c>
+      <c r="L68" t="str">
+        <v/>
+      </c>
+      <c r="M68" t="str">
+        <v/>
+      </c>
+      <c r="N68" t="str">
+        <v/>
+      </c>
+      <c r="O68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C69" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D69" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Case Labeler</v>
+      </c>
+      <c r="F69" t="str">
+        <v>AOB-1001</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H69" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I69" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J69" t="str">
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <v/>
+      </c>
+      <c r="L69" t="str">
+        <v/>
+      </c>
+      <c r="M69" t="str">
+        <v/>
+      </c>
+      <c r="N69" t="str">
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C70" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D70" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Case Labeler - D1</v>
+      </c>
+      <c r="F70" t="str">
+        <v>AOB-1002</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H70" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I70" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J70" t="str">
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <v/>
+      </c>
+      <c r="L70" t="str">
+        <v/>
+      </c>
+      <c r="M70" t="str">
+        <v/>
+      </c>
+      <c r="N70" t="str">
+        <v/>
+      </c>
+      <c r="O70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C71" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D71" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Case Labeler - D2</v>
+      </c>
+      <c r="F71" t="str">
+        <v>AOB-1003</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H71" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I71" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <v/>
+      </c>
+      <c r="L71" t="str">
+        <v/>
+      </c>
+      <c r="M71" t="str">
+        <v/>
+      </c>
+      <c r="N71" t="str">
+        <v/>
+      </c>
+      <c r="O71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C72" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D72" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Manual Palletization</v>
+      </c>
+      <c r="F72" t="str">
+        <v>AOB-1004</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H72" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I72" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <v/>
+      </c>
+      <c r="L72" t="str">
+        <v/>
+      </c>
+      <c r="M72" t="str">
+        <v/>
+      </c>
+      <c r="N72" t="str">
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C73" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D73" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Fallen Case</v>
+      </c>
+      <c r="F73" t="str">
+        <v>AOB-1005</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H73" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I73" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <v/>
+      </c>
+      <c r="L73" t="str">
+        <v/>
+      </c>
+      <c r="M73" t="str">
+        <v/>
+      </c>
+      <c r="N73" t="str">
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C74" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D74" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E74" t="str">
+        <v>PBA</v>
+      </c>
+      <c r="F74" t="str">
+        <v>AOB-1006</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H74" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I74" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <v/>
+      </c>
+      <c r="L74" t="str">
+        <v/>
+      </c>
+      <c r="M74" t="str">
+        <v/>
+      </c>
+      <c r="N74" t="str">
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C75" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D75" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Pallet PNA</v>
+      </c>
+      <c r="F75" t="str">
+        <v>AOB-1007</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H75" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I75" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <v/>
+      </c>
+      <c r="L75" t="str">
+        <v/>
+      </c>
+      <c r="M75" t="str">
+        <v/>
+      </c>
+      <c r="N75" t="str">
+        <v/>
+      </c>
+      <c r="O75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C76" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D76" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Backup printer</v>
+      </c>
+      <c r="F76" t="str">
+        <v>AOB-1008</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H76" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I76" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <v/>
+      </c>
+      <c r="L76" t="str">
+        <v/>
+      </c>
+      <c r="M76" t="str">
+        <v/>
+      </c>
+      <c r="N76" t="str">
+        <v/>
+      </c>
+      <c r="O76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C77" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D77" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E77" t="str">
+        <v>E-Stop</v>
+      </c>
+      <c r="F77" t="str">
+        <v>SA-1001</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H77" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I77" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <v/>
+      </c>
+      <c r="L77" t="str">
+        <v/>
+      </c>
+      <c r="M77" t="str">
+        <v/>
+      </c>
+      <c r="N77" t="str">
+        <v/>
+      </c>
+      <c r="O77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C78" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D78" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Interlocks</v>
+      </c>
+      <c r="F78" t="str">
+        <v>SA-1002</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H78" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I78" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <v/>
+      </c>
+      <c r="L78" t="str">
+        <v/>
+      </c>
+      <c r="M78" t="str">
+        <v/>
+      </c>
+      <c r="N78" t="str">
+        <v/>
+      </c>
+      <c r="O78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C79" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D79" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Cell Hardening - 1</v>
+      </c>
+      <c r="F79" t="str">
+        <v>CH-1001</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H79" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I79" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <v/>
+      </c>
+      <c r="L79" t="str">
+        <v/>
+      </c>
+      <c r="M79" t="str">
+        <v/>
+      </c>
+      <c r="N79" t="str">
+        <v/>
+      </c>
+      <c r="O79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C80" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D80" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Cell Hardening - 2</v>
+      </c>
+      <c r="F80" t="str">
+        <v>CH-1002</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H80" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I80" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <v/>
+      </c>
+      <c r="L80" t="str">
+        <v/>
+      </c>
+      <c r="M80" t="str">
+        <v/>
+      </c>
+      <c r="N80" t="str">
+        <v/>
+      </c>
+      <c r="O80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C81" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D81" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Cell Hardening - 3</v>
+      </c>
+      <c r="F81" t="str">
+        <v>CH-1003</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H81" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I81" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <v/>
+      </c>
+      <c r="L81" t="str">
+        <v/>
+      </c>
+      <c r="M81" t="str">
+        <v/>
+      </c>
+      <c r="N81" t="str">
+        <v/>
+      </c>
+      <c r="O81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C82" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D82" t="str">
+        <v>AOB203</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Volume Test</v>
+      </c>
+      <c r="F82" t="str">
+        <v>VT-0001</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H82" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I82" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <v/>
+      </c>
+      <c r="L82" t="str">
+        <v/>
+      </c>
+      <c r="M82" t="str">
+        <v/>
+      </c>
+      <c r="N82" t="str">
+        <v/>
+      </c>
+      <c r="O82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C83" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D83" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E83" t="str">
+        <v>GAC</v>
+      </c>
+      <c r="F83" t="str">
+        <v>FLIB-1001</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H83" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I83" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <v/>
+      </c>
+      <c r="L83" t="str">
+        <v/>
+      </c>
+      <c r="M83" t="str">
+        <v/>
+      </c>
+      <c r="N83" t="str">
+        <v/>
+      </c>
+      <c r="O83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C84" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D84" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Switch table</v>
+      </c>
+      <c r="F84" t="str">
+        <v>FLIB-1002</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H84" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I84" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <v/>
+      </c>
+      <c r="L84" t="str">
+        <v/>
+      </c>
+      <c r="M84" t="str">
+        <v/>
+      </c>
+      <c r="N84" t="str">
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C85" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D85" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Length</v>
+      </c>
+      <c r="F85" t="str">
+        <v>FLIB-1003</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H85" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I85" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <v/>
+      </c>
+      <c r="L85" t="str">
+        <v/>
+      </c>
+      <c r="M85" t="str">
+        <v/>
+      </c>
+      <c r="N85" t="str">
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C86" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D86" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Width</v>
+      </c>
+      <c r="F86" t="str">
+        <v>FLIB-1004</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H86" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I86" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <v/>
+      </c>
+      <c r="L86" t="str">
+        <v/>
+      </c>
+      <c r="M86" t="str">
+        <v/>
+      </c>
+      <c r="N86" t="str">
+        <v/>
+      </c>
+      <c r="O86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C87" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D87" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Height</v>
+      </c>
+      <c r="F87" t="str">
+        <v>FLIB-1005</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H87" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I87" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <v/>
+      </c>
+      <c r="L87" t="str">
+        <v/>
+      </c>
+      <c r="M87" t="str">
+        <v/>
+      </c>
+      <c r="N87" t="str">
+        <v/>
+      </c>
+      <c r="O87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C88" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D88" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Extendable E-stop</v>
+      </c>
+      <c r="F88" t="str">
+        <v>SA-1003</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H88" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I88" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <v/>
+      </c>
+      <c r="L88" t="str">
+        <v/>
+      </c>
+      <c r="M88" t="str">
+        <v/>
+      </c>
+      <c r="N88" t="str">
+        <v/>
+      </c>
+      <c r="O88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C89" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D89" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E89" t="str">
+        <v>E-Stop</v>
+      </c>
+      <c r="F89" t="str">
+        <v>SA-1001</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H89" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I89" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <v/>
+      </c>
+      <c r="L89" t="str">
+        <v/>
+      </c>
+      <c r="M89" t="str">
+        <v/>
+      </c>
+      <c r="N89" t="str">
+        <v/>
+      </c>
+      <c r="O89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C90" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D90" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Interlocks</v>
+      </c>
+      <c r="F90" t="str">
+        <v>SA-1002</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H90" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I90" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J90" t="str">
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <v/>
+      </c>
+      <c r="L90" t="str">
+        <v/>
+      </c>
+      <c r="M90" t="str">
+        <v/>
+      </c>
+      <c r="N90" t="str">
+        <v/>
+      </c>
+      <c r="O90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C91" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D91" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Cell Hardening - 1</v>
+      </c>
+      <c r="F91" t="str">
+        <v>CH-1001</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H91" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I91" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <v/>
+      </c>
+      <c r="L91" t="str">
+        <v/>
+      </c>
+      <c r="M91" t="str">
+        <v/>
+      </c>
+      <c r="N91" t="str">
+        <v/>
+      </c>
+      <c r="O91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C92" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D92" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Cell Hardening - 2</v>
+      </c>
+      <c r="F92" t="str">
+        <v>CH-1002</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H92" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I92" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J92" t="str">
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <v/>
+      </c>
+      <c r="L92" t="str">
+        <v/>
+      </c>
+      <c r="M92" t="str">
+        <v/>
+      </c>
+      <c r="N92" t="str">
+        <v/>
+      </c>
+      <c r="O92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C93" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D93" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Cell Hardening - 3</v>
+      </c>
+      <c r="F93" t="str">
+        <v>CH-1003</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H93" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I93" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J93" t="str">
+        <v/>
+      </c>
+      <c r="K93" t="str">
+        <v/>
+      </c>
+      <c r="L93" t="str">
+        <v/>
+      </c>
+      <c r="M93" t="str">
+        <v/>
+      </c>
+      <c r="N93" t="str">
+        <v/>
+      </c>
+      <c r="O93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C94" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D94" t="str">
+        <v>FLIB1</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Volume Test</v>
+      </c>
+      <c r="F94" t="str">
+        <v>VT-0001</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H94" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I94" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J94" t="str">
+        <v/>
+      </c>
+      <c r="K94" t="str">
+        <v/>
+      </c>
+      <c r="L94" t="str">
+        <v/>
+      </c>
+      <c r="M94" t="str">
+        <v/>
+      </c>
+      <c r="N94" t="str">
+        <v/>
+      </c>
+      <c r="O94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C95" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D95" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E95" t="str">
+        <v>GAC</v>
+      </c>
+      <c r="F95" t="str">
+        <v>FLIB-1001</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H95" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I95" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J95" t="str">
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <v/>
+      </c>
+      <c r="L95" t="str">
+        <v/>
+      </c>
+      <c r="M95" t="str">
+        <v/>
+      </c>
+      <c r="N95" t="str">
+        <v/>
+      </c>
+      <c r="O95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C96" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D96" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Switch table</v>
+      </c>
+      <c r="F96" t="str">
+        <v>FLIB-1002</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H96" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I96" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J96" t="str">
+        <v/>
+      </c>
+      <c r="K96" t="str">
+        <v/>
+      </c>
+      <c r="L96" t="str">
+        <v/>
+      </c>
+      <c r="M96" t="str">
+        <v/>
+      </c>
+      <c r="N96" t="str">
+        <v/>
+      </c>
+      <c r="O96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C97" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D97" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Length</v>
+      </c>
+      <c r="F97" t="str">
+        <v>FLIB-1003</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H97" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I97" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J97" t="str">
+        <v/>
+      </c>
+      <c r="K97" t="str">
+        <v/>
+      </c>
+      <c r="L97" t="str">
+        <v/>
+      </c>
+      <c r="M97" t="str">
+        <v/>
+      </c>
+      <c r="N97" t="str">
+        <v/>
+      </c>
+      <c r="O97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C98" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D98" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Width</v>
+      </c>
+      <c r="F98" t="str">
+        <v>FLIB-1004</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H98" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I98" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J98" t="str">
+        <v/>
+      </c>
+      <c r="K98" t="str">
+        <v/>
+      </c>
+      <c r="L98" t="str">
+        <v/>
+      </c>
+      <c r="M98" t="str">
+        <v/>
+      </c>
+      <c r="N98" t="str">
+        <v/>
+      </c>
+      <c r="O98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C99" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D99" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Height</v>
+      </c>
+      <c r="F99" t="str">
+        <v>FLIB-1005</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H99" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I99" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J99" t="str">
+        <v/>
+      </c>
+      <c r="K99" t="str">
+        <v/>
+      </c>
+      <c r="L99" t="str">
+        <v/>
+      </c>
+      <c r="M99" t="str">
+        <v/>
+      </c>
+      <c r="N99" t="str">
+        <v/>
+      </c>
+      <c r="O99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C100" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D100" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Extendable E-stop</v>
+      </c>
+      <c r="F100" t="str">
+        <v>SA-1003</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H100" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I100" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J100" t="str">
+        <v/>
+      </c>
+      <c r="K100" t="str">
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <v/>
+      </c>
+      <c r="M100" t="str">
+        <v/>
+      </c>
+      <c r="N100" t="str">
+        <v/>
+      </c>
+      <c r="O100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C101" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D101" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E101" t="str">
+        <v>E-Stop</v>
+      </c>
+      <c r="F101" t="str">
+        <v>SA-1001</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H101" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I101" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J101" t="str">
+        <v/>
+      </c>
+      <c r="K101" t="str">
+        <v/>
+      </c>
+      <c r="L101" t="str">
+        <v/>
+      </c>
+      <c r="M101" t="str">
+        <v/>
+      </c>
+      <c r="N101" t="str">
+        <v/>
+      </c>
+      <c r="O101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C102" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D102" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Interlocks</v>
+      </c>
+      <c r="F102" t="str">
+        <v>SA-1002</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H102" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I102" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J102" t="str">
+        <v/>
+      </c>
+      <c r="K102" t="str">
+        <v/>
+      </c>
+      <c r="L102" t="str">
+        <v/>
+      </c>
+      <c r="M102" t="str">
+        <v/>
+      </c>
+      <c r="N102" t="str">
+        <v/>
+      </c>
+      <c r="O102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C103" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D103" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Cell Hardening - 1</v>
+      </c>
+      <c r="F103" t="str">
+        <v>CH-1001</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H103" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I103" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J103" t="str">
+        <v/>
+      </c>
+      <c r="K103" t="str">
+        <v/>
+      </c>
+      <c r="L103" t="str">
+        <v/>
+      </c>
+      <c r="M103" t="str">
+        <v/>
+      </c>
+      <c r="N103" t="str">
+        <v/>
+      </c>
+      <c r="O103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C104" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D104" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Cell Hardening - 2</v>
+      </c>
+      <c r="F104" t="str">
+        <v>CH-1002</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H104" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I104" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J104" t="str">
+        <v/>
+      </c>
+      <c r="K104" t="str">
+        <v/>
+      </c>
+      <c r="L104" t="str">
+        <v/>
+      </c>
+      <c r="M104" t="str">
+        <v/>
+      </c>
+      <c r="N104" t="str">
+        <v/>
+      </c>
+      <c r="O104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C105" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D105" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Cell Hardening - 3</v>
+      </c>
+      <c r="F105" t="str">
+        <v>CH-1003</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H105" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I105" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J105" t="str">
+        <v/>
+      </c>
+      <c r="K105" t="str">
+        <v/>
+      </c>
+      <c r="L105" t="str">
+        <v/>
+      </c>
+      <c r="M105" t="str">
+        <v/>
+      </c>
+      <c r="N105" t="str">
+        <v/>
+      </c>
+      <c r="O105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C106" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D106" t="str">
+        <v>FLIB2</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Volume Test</v>
+      </c>
+      <c r="F106" t="str">
+        <v>VT-0001</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H106" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I106" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J106" t="str">
+        <v/>
+      </c>
+      <c r="K106" t="str">
+        <v/>
+      </c>
+      <c r="L106" t="str">
+        <v/>
+      </c>
+      <c r="M106" t="str">
+        <v/>
+      </c>
+      <c r="N106" t="str">
+        <v/>
+      </c>
+      <c r="O106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C107" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D107" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E107" t="str">
+        <v>GAC</v>
+      </c>
+      <c r="F107" t="str">
+        <v>FLIB-1001</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H107" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I107" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J107" t="str">
+        <v/>
+      </c>
+      <c r="K107" t="str">
+        <v/>
+      </c>
+      <c r="L107" t="str">
+        <v/>
+      </c>
+      <c r="M107" t="str">
+        <v/>
+      </c>
+      <c r="N107" t="str">
+        <v/>
+      </c>
+      <c r="O107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C108" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D108" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Switch table</v>
+      </c>
+      <c r="F108" t="str">
+        <v>FLIB-1002</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H108" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I108" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J108" t="str">
+        <v/>
+      </c>
+      <c r="K108" t="str">
+        <v/>
+      </c>
+      <c r="L108" t="str">
+        <v/>
+      </c>
+      <c r="M108" t="str">
+        <v/>
+      </c>
+      <c r="N108" t="str">
+        <v/>
+      </c>
+      <c r="O108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C109" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D109" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Length</v>
+      </c>
+      <c r="F109" t="str">
+        <v>FLIB-1003</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H109" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I109" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J109" t="str">
+        <v/>
+      </c>
+      <c r="K109" t="str">
+        <v/>
+      </c>
+      <c r="L109" t="str">
+        <v/>
+      </c>
+      <c r="M109" t="str">
+        <v/>
+      </c>
+      <c r="N109" t="str">
+        <v/>
+      </c>
+      <c r="O109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C110" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D110" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Width</v>
+      </c>
+      <c r="F110" t="str">
+        <v>FLIB-1004</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H110" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I110" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J110" t="str">
+        <v/>
+      </c>
+      <c r="K110" t="str">
+        <v/>
+      </c>
+      <c r="L110" t="str">
+        <v/>
+      </c>
+      <c r="M110" t="str">
+        <v/>
+      </c>
+      <c r="N110" t="str">
+        <v/>
+      </c>
+      <c r="O110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C111" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D111" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Height</v>
+      </c>
+      <c r="F111" t="str">
+        <v>FLIB-1005</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H111" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I111" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J111" t="str">
+        <v/>
+      </c>
+      <c r="K111" t="str">
+        <v/>
+      </c>
+      <c r="L111" t="str">
+        <v/>
+      </c>
+      <c r="M111" t="str">
+        <v/>
+      </c>
+      <c r="N111" t="str">
+        <v/>
+      </c>
+      <c r="O111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C112" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D112" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Extendable E-stop</v>
+      </c>
+      <c r="F112" t="str">
+        <v>SA-1003</v>
+      </c>
+      <c r="G112" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H112" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I112" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J112" t="str">
+        <v/>
+      </c>
+      <c r="K112" t="str">
+        <v/>
+      </c>
+      <c r="L112" t="str">
+        <v/>
+      </c>
+      <c r="M112" t="str">
+        <v/>
+      </c>
+      <c r="N112" t="str">
+        <v/>
+      </c>
+      <c r="O112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C113" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D113" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E113" t="str">
+        <v>E-Stop</v>
+      </c>
+      <c r="F113" t="str">
+        <v>SA-1001</v>
+      </c>
+      <c r="G113" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H113" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I113" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J113" t="str">
+        <v/>
+      </c>
+      <c r="K113" t="str">
+        <v/>
+      </c>
+      <c r="L113" t="str">
+        <v/>
+      </c>
+      <c r="M113" t="str">
+        <v/>
+      </c>
+      <c r="N113" t="str">
+        <v/>
+      </c>
+      <c r="O113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C114" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D114" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Interlocks</v>
+      </c>
+      <c r="F114" t="str">
+        <v>SA-1002</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H114" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I114" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J114" t="str">
+        <v/>
+      </c>
+      <c r="K114" t="str">
+        <v/>
+      </c>
+      <c r="L114" t="str">
+        <v/>
+      </c>
+      <c r="M114" t="str">
+        <v/>
+      </c>
+      <c r="N114" t="str">
+        <v/>
+      </c>
+      <c r="O114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C115" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D115" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Cell Hardening - 1</v>
+      </c>
+      <c r="F115" t="str">
+        <v>CH-1001</v>
+      </c>
+      <c r="G115" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H115" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I115" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J115" t="str">
+        <v/>
+      </c>
+      <c r="K115" t="str">
+        <v/>
+      </c>
+      <c r="L115" t="str">
+        <v/>
+      </c>
+      <c r="M115" t="str">
+        <v/>
+      </c>
+      <c r="N115" t="str">
+        <v/>
+      </c>
+      <c r="O115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C116" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D116" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Cell Hardening - 2</v>
+      </c>
+      <c r="F116" t="str">
+        <v>CH-1002</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H116" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I116" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J116" t="str">
+        <v/>
+      </c>
+      <c r="K116" t="str">
+        <v/>
+      </c>
+      <c r="L116" t="str">
+        <v/>
+      </c>
+      <c r="M116" t="str">
+        <v/>
+      </c>
+      <c r="N116" t="str">
+        <v/>
+      </c>
+      <c r="O116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C117" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D117" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Cell Hardening - 3</v>
+      </c>
+      <c r="F117" t="str">
+        <v>CH-1003</v>
+      </c>
+      <c r="G117" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H117" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I117" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J117" t="str">
+        <v/>
+      </c>
+      <c r="K117" t="str">
+        <v/>
+      </c>
+      <c r="L117" t="str">
+        <v/>
+      </c>
+      <c r="M117" t="str">
+        <v/>
+      </c>
+      <c r="N117" t="str">
+        <v/>
+      </c>
+      <c r="O117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C118" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D118" t="str">
+        <v>FLIB3</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Volume Test</v>
+      </c>
+      <c r="F118" t="str">
+        <v>VT-0001</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H118" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I118" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J118" t="str">
+        <v/>
+      </c>
+      <c r="K118" t="str">
+        <v/>
+      </c>
+      <c r="L118" t="str">
+        <v/>
+      </c>
+      <c r="M118" t="str">
+        <v/>
+      </c>
+      <c r="N118" t="str">
+        <v/>
+      </c>
+      <c r="O118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C119" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D119" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E119" t="str">
+        <v>GAC</v>
+      </c>
+      <c r="F119" t="str">
+        <v>MCPIB-1001</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H119" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I119" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J119" t="str">
+        <v/>
+      </c>
+      <c r="K119" t="str">
+        <v/>
+      </c>
+      <c r="L119" t="str">
+        <v/>
+      </c>
+      <c r="M119" t="str">
+        <v/>
+      </c>
+      <c r="N119" t="str">
+        <v/>
+      </c>
+      <c r="O119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C120" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D120" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Switch table</v>
+      </c>
+      <c r="F120" t="str">
+        <v>MCPIB-1002</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H120" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I120" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J120" t="str">
+        <v/>
+      </c>
+      <c r="K120" t="str">
+        <v/>
+      </c>
+      <c r="L120" t="str">
+        <v/>
+      </c>
+      <c r="M120" t="str">
+        <v/>
+      </c>
+      <c r="N120" t="str">
+        <v/>
+      </c>
+      <c r="O120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C121" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D121" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Length</v>
+      </c>
+      <c r="F121" t="str">
+        <v>MCPIB-1003</v>
+      </c>
+      <c r="G121" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H121" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I121" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J121" t="str">
+        <v/>
+      </c>
+      <c r="K121" t="str">
+        <v/>
+      </c>
+      <c r="L121" t="str">
+        <v/>
+      </c>
+      <c r="M121" t="str">
+        <v/>
+      </c>
+      <c r="N121" t="str">
+        <v/>
+      </c>
+      <c r="O121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C122" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D122" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Width</v>
+      </c>
+      <c r="F122" t="str">
+        <v>MCPIB-1004</v>
+      </c>
+      <c r="G122" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H122" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I122" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J122" t="str">
+        <v/>
+      </c>
+      <c r="K122" t="str">
+        <v/>
+      </c>
+      <c r="L122" t="str">
+        <v/>
+      </c>
+      <c r="M122" t="str">
+        <v/>
+      </c>
+      <c r="N122" t="str">
+        <v/>
+      </c>
+      <c r="O122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C123" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D123" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Height</v>
+      </c>
+      <c r="F123" t="str">
+        <v>MCPIB-1005</v>
+      </c>
+      <c r="G123" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H123" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I123" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J123" t="str">
+        <v/>
+      </c>
+      <c r="K123" t="str">
+        <v/>
+      </c>
+      <c r="L123" t="str">
+        <v/>
+      </c>
+      <c r="M123" t="str">
+        <v/>
+      </c>
+      <c r="N123" t="str">
+        <v/>
+      </c>
+      <c r="O123" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C124" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D124" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E124" t="str">
+        <v>CIS</v>
+      </c>
+      <c r="F124" t="str">
+        <v>MCPIB-1006</v>
+      </c>
+      <c r="G124" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H124" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I124" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J124" t="str">
+        <v/>
+      </c>
+      <c r="K124" t="str">
+        <v/>
+      </c>
+      <c r="L124" t="str">
+        <v/>
+      </c>
+      <c r="M124" t="str">
+        <v/>
+      </c>
+      <c r="N124" t="str">
+        <v/>
+      </c>
+      <c r="O124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C125" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D125" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Pallet lift</v>
+      </c>
+      <c r="F125" t="str">
+        <v>MCPIB-1007</v>
+      </c>
+      <c r="G125" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H125" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I125" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J125" t="str">
+        <v/>
+      </c>
+      <c r="K125" t="str">
+        <v/>
+      </c>
+      <c r="L125" t="str">
+        <v/>
+      </c>
+      <c r="M125" t="str">
+        <v/>
+      </c>
+      <c r="N125" t="str">
+        <v/>
+      </c>
+      <c r="O125" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C126" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D126" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E126" t="str">
+        <v>E-Stop</v>
+      </c>
+      <c r="F126" t="str">
+        <v>SA-1001</v>
+      </c>
+      <c r="G126" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H126" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I126" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J126" t="str">
+        <v/>
+      </c>
+      <c r="K126" t="str">
+        <v/>
+      </c>
+      <c r="L126" t="str">
+        <v/>
+      </c>
+      <c r="M126" t="str">
+        <v/>
+      </c>
+      <c r="N126" t="str">
+        <v/>
+      </c>
+      <c r="O126" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C127" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D127" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Interlocks</v>
+      </c>
+      <c r="F127" t="str">
+        <v>SA-1002</v>
+      </c>
+      <c r="G127" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="H127" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I127" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J127" t="str">
+        <v/>
+      </c>
+      <c r="K127" t="str">
+        <v/>
+      </c>
+      <c r="L127" t="str">
+        <v/>
+      </c>
+      <c r="M127" t="str">
+        <v/>
+      </c>
+      <c r="N127" t="str">
+        <v/>
+      </c>
+      <c r="O127" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C128" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D128" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Cell Hardening - 1</v>
+      </c>
+      <c r="F128" t="str">
+        <v>CH-1001</v>
+      </c>
+      <c r="G128" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H128" t="str">
+        <v>DATA_ENTRY</v>
+      </c>
+      <c r="I128" t="str">
+        <v>1/20/2025, 4:00:00 AM</v>
+      </c>
+      <c r="J128" t="str">
+        <v>Test User</v>
+      </c>
+      <c r="K128" t="str">
+        <v/>
+      </c>
+      <c r="L128" t="str">
+        <v/>
+      </c>
+      <c r="M128" t="str">
+        <v/>
+      </c>
+      <c r="N128" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O128" t="str">
+        <v>2025-01-20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C129" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D129" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Cell Hardening - 2</v>
+      </c>
+      <c r="F129" t="str">
+        <v>CH-1002</v>
+      </c>
+      <c r="G129" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H129" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I129" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J129" t="str">
+        <v/>
+      </c>
+      <c r="K129" t="str">
+        <v/>
+      </c>
+      <c r="L129" t="str">
+        <v/>
+      </c>
+      <c r="M129" t="str">
+        <v/>
+      </c>
+      <c r="N129" t="str">
+        <v/>
+      </c>
+      <c r="O129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C130" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D130" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Cell Hardening - 3</v>
+      </c>
+      <c r="F130" t="str">
+        <v>CH-1003</v>
+      </c>
+      <c r="G130" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H130" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I130" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J130" t="str">
+        <v/>
+      </c>
+      <c r="K130" t="str">
+        <v/>
+      </c>
+      <c r="L130" t="str">
+        <v/>
+      </c>
+      <c r="M130" t="str">
+        <v/>
+      </c>
+      <c r="N130" t="str">
+        <v/>
+      </c>
+      <c r="O130" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C131" t="str">
+        <v>MCPIB</v>
+      </c>
+      <c r="D131" t="str">
+        <v>MCPIB1</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Volume Test</v>
+      </c>
+      <c r="F131" t="str">
+        <v>VT-0001</v>
+      </c>
+      <c r="G131" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="H131" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I131" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J131" t="str">
+        <v/>
+      </c>
+      <c r="K131" t="str">
+        <v/>
+      </c>
+      <c r="L131" t="str">
+        <v/>
+      </c>
+      <c r="M131" t="str">
+        <v/>
+      </c>
+      <c r="N131" t="str">
+        <v/>
+      </c>
+      <c r="O131" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C132" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D132" t="str">
+        <v>SYSTEM</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Messaging</v>
+      </c>
+      <c r="F132" t="str">
+        <v>AIB-SYS-101</v>
+      </c>
+      <c r="G132" t="str">
+        <v>System</v>
+      </c>
+      <c r="H132" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I132" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J132" t="str">
+        <v/>
+      </c>
+      <c r="K132" t="str">
+        <v/>
+      </c>
+      <c r="L132" t="str">
+        <v/>
+      </c>
+      <c r="M132" t="str">
+        <v/>
+      </c>
+      <c r="N132" t="str">
+        <v/>
+      </c>
+      <c r="O132" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C133" t="str">
+        <v>AIB</v>
+      </c>
+      <c r="D133" t="str">
+        <v>SYSTEM</v>
+      </c>
+      <c r="E133" t="str">
+        <v>LPN</v>
+      </c>
+      <c r="F133" t="str">
+        <v>AIB-SYS-102</v>
+      </c>
+      <c r="G133" t="str">
+        <v>System</v>
+      </c>
+      <c r="H133" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I133" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J133" t="str">
+        <v/>
+      </c>
+      <c r="K133" t="str">
+        <v/>
+      </c>
+      <c r="L133" t="str">
+        <v/>
+      </c>
+      <c r="M133" t="str">
+        <v/>
+      </c>
+      <c r="N133" t="str">
+        <v/>
+      </c>
+      <c r="O133" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C134" t="str">
+        <v>AOB</v>
+      </c>
+      <c r="D134" t="str">
+        <v>SYSTEM</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Messaging</v>
+      </c>
+      <c r="F134" t="str">
+        <v>AOB-SYS-101</v>
+      </c>
+      <c r="G134" t="str">
+        <v>System</v>
+      </c>
+      <c r="H134" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I134" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J134" t="str">
+        <v/>
+      </c>
+      <c r="K134" t="str">
+        <v/>
+      </c>
+      <c r="L134" t="str">
+        <v/>
+      </c>
+      <c r="M134" t="str">
+        <v/>
+      </c>
+      <c r="N134" t="str">
+        <v/>
+      </c>
+      <c r="O134" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>MID</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Phase 2</v>
+      </c>
+      <c r="C135" t="str">
+        <v>FLIB</v>
+      </c>
+      <c r="D135" t="str">
+        <v>SYSTEM</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Messaging</v>
+      </c>
+      <c r="F135" t="str">
+        <v>FLIB-SYS-101</v>
+      </c>
+      <c r="G135" t="str">
+        <v>System</v>
+      </c>
+      <c r="H135" t="str">
+        <v>NOT RUN</v>
+      </c>
+      <c r="I135" t="str">
+        <v>8/4/2025, 11:41:33 PM</v>
+      </c>
+      <c r="J135" t="str">
+        <v/>
+      </c>
+      <c r="K135" t="str">
+        <v/>
+      </c>
+      <c r="L135" t="str">
+        <v/>
+      </c>
+      <c r="M135" t="str">
+        <v/>
+      </c>
+      <c r="N135" t="str">
+        <v/>
+      </c>
+      <c r="O135" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O135"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/test_status.xlsx
+++ b/backend/data/test_status.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,30 +422,33 @@
         <v>Test ID</v>
       </c>
       <c r="G1" t="str">
+        <v>Unique Test ID</v>
+      </c>
+      <c r="H1" t="str">
         <v>Scope</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Status</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Last modified</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Modified User</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>VT Volume</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>VT Start DateTime</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>VT End DateTime</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>CH Volume</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>CH Date</v>
       </c>
     </row>
@@ -469,16 +472,16 @@
         <v>AIB-1001</v>
       </c>
       <c r="G2" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AIB101_AIB-1001</v>
       </c>
       <c r="H2" t="str">
-        <v>PASS</v>
+        <v>Cell</v>
       </c>
       <c r="I2" t="str">
-        <v>8/4/2025, 11:43:12 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J2" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K2" t="str">
         <v/>
@@ -493,6 +496,9 @@
         <v/>
       </c>
       <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
         <v/>
       </c>
     </row>
@@ -516,16 +522,16 @@
         <v>AIB-1002</v>
       </c>
       <c r="G3" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AIB101_AIB-1002</v>
       </c>
       <c r="H3" t="str">
-        <v>PASS</v>
+        <v>Cell</v>
       </c>
       <c r="I3" t="str">
-        <v>8/4/2025, 11:43:13 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J3" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K3" t="str">
         <v/>
@@ -540,6 +546,9 @@
         <v/>
       </c>
       <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
         <v/>
       </c>
     </row>
@@ -563,16 +572,16 @@
         <v>AIB-1003</v>
       </c>
       <c r="G4" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AIB101_AIB-1003</v>
       </c>
       <c r="H4" t="str">
-        <v>PASS</v>
+        <v>Cell</v>
       </c>
       <c r="I4" t="str">
-        <v>8/4/2025, 11:43:15 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J4" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K4" t="str">
         <v/>
@@ -587,6 +596,9 @@
         <v/>
       </c>
       <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
         <v/>
       </c>
     </row>
@@ -610,16 +622,16 @@
         <v>AIB-1004</v>
       </c>
       <c r="G5" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AIB101_AIB-1004</v>
       </c>
       <c r="H5" t="str">
-        <v>PASS</v>
+        <v>Cell</v>
       </c>
       <c r="I5" t="str">
-        <v>8/4/2025, 11:43:17 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J5" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -634,6 +646,9 @@
         <v/>
       </c>
       <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
         <v/>
       </c>
     </row>
@@ -657,16 +672,16 @@
         <v>AIB-1005</v>
       </c>
       <c r="G6" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AIB101_AIB-1005</v>
       </c>
       <c r="H6" t="str">
-        <v>PASS</v>
+        <v>Cell</v>
       </c>
       <c r="I6" t="str">
-        <v>8/4/2025, 11:43:04 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J6" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K6" t="str">
         <v/>
@@ -681,6 +696,9 @@
         <v/>
       </c>
       <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
         <v/>
       </c>
     </row>
@@ -704,19 +722,19 @@
         <v>SA-1001</v>
       </c>
       <c r="G7" t="str">
+        <v>BRH_Phase_1_AIB101_SA-1001</v>
+      </c>
+      <c r="H7" t="str">
         <v>Safety</v>
       </c>
-      <c r="H7" t="str">
-        <v>BLOCKED</v>
-      </c>
       <c r="I7" t="str">
-        <v>8/4/2025, 11:43:07 PM</v>
+        <v>PASS</v>
       </c>
       <c r="J7" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:53:02 AM</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -728,6 +746,9 @@
         <v/>
       </c>
       <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
         <v/>
       </c>
     </row>
@@ -751,19 +772,19 @@
         <v>SA-1002</v>
       </c>
       <c r="G8" t="str">
+        <v>BRH_Phase_1_AIB101_SA-1002</v>
+      </c>
+      <c r="H8" t="str">
         <v>Safety</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <v>PASS</v>
       </c>
-      <c r="I8" t="str">
-        <v>8/4/2025, 11:43:09 PM</v>
-      </c>
       <c r="J8" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:53:04 AM</v>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L8" t="str">
         <v/>
@@ -775,6 +796,9 @@
         <v/>
       </c>
       <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
         <v/>
       </c>
     </row>
@@ -798,20 +822,20 @@
         <v>CH-1001</v>
       </c>
       <c r="G9" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AIB101_CH-1001</v>
       </c>
       <c r="H9" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="I9" t="str">
         <v>DATA_ENTRY</v>
       </c>
-      <c r="I9" t="str">
-        <v>8/4/2025, 11:43:01 PM</v>
-      </c>
       <c r="J9" t="str">
+        <v>8/5/2025, 9:29:02 AM</v>
+      </c>
+      <c r="K9" t="str">
         <v>Test Engineer</v>
       </c>
-      <c r="K9" t="str">
-        <v/>
-      </c>
       <c r="L9" t="str">
         <v/>
       </c>
@@ -819,10 +843,13 @@
         <v/>
       </c>
       <c r="N9" t="str">
-        <v>32</v>
+        <v/>
       </c>
       <c r="O9" t="str">
-        <v>2025-08-02</v>
+        <v>546</v>
+      </c>
+      <c r="P9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -845,20 +872,20 @@
         <v>CH-1002</v>
       </c>
       <c r="G10" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AIB101_CH-1002</v>
       </c>
       <c r="H10" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="I10" t="str">
         <v>DATA_ENTRY</v>
       </c>
-      <c r="I10" t="str">
-        <v>8/4/2025, 11:42:59 PM</v>
-      </c>
       <c r="J10" t="str">
+        <v>8/5/2025, 9:29:00 AM</v>
+      </c>
+      <c r="K10" t="str">
         <v>Test Engineer</v>
       </c>
-      <c r="K10" t="str">
-        <v/>
-      </c>
       <c r="L10" t="str">
         <v/>
       </c>
@@ -866,10 +893,13 @@
         <v/>
       </c>
       <c r="N10" t="str">
-        <v>4435</v>
+        <v/>
       </c>
       <c r="O10" t="str">
-        <v>2025-08-03</v>
+        <v>5456</v>
+      </c>
+      <c r="P10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -892,20 +922,20 @@
         <v>CH-1003</v>
       </c>
       <c r="G11" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AIB101_CH-1003</v>
       </c>
       <c r="H11" t="str">
+        <v>Cell</v>
+      </c>
+      <c r="I11" t="str">
         <v>DATA_ENTRY</v>
       </c>
-      <c r="I11" t="str">
-        <v>8/4/2025, 11:42:57 PM</v>
-      </c>
       <c r="J11" t="str">
+        <v>8/5/2025, 9:29:04 AM</v>
+      </c>
+      <c r="K11" t="str">
         <v>Test Engineer</v>
       </c>
-      <c r="K11" t="str">
-        <v/>
-      </c>
       <c r="L11" t="str">
         <v/>
       </c>
@@ -913,9 +943,12 @@
         <v/>
       </c>
       <c r="N11" t="str">
-        <v>423</v>
+        <v/>
       </c>
       <c r="O11" t="str">
+        <v>34</v>
+      </c>
+      <c r="P11" t="str">
         <v>2025-08-04</v>
       </c>
     </row>
@@ -939,30 +972,33 @@
         <v>VT-0001</v>
       </c>
       <c r="G12" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AIB101_VT-0001</v>
       </c>
       <c r="H12" t="str">
-        <v>FAIL</v>
+        <v>Cell</v>
       </c>
       <c r="I12" t="str">
-        <v>8/4/2025, 11:43:06 PM</v>
+        <v>PASS</v>
       </c>
       <c r="J12" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 10:41:11 AM</v>
       </c>
       <c r="K12" t="str">
-        <v>3234</v>
+        <v>Automation Engineer</v>
       </c>
       <c r="L12" t="str">
-        <v>2025-08-03T23:42</v>
+        <v>34455</v>
       </c>
       <c r="M12" t="str">
-        <v>2025-08-03T21:42</v>
+        <v>2025-08-07T09:29</v>
       </c>
       <c r="N12" t="str">
-        <v/>
+        <v>2025-08-07T09:29</v>
       </c>
       <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
         <v/>
       </c>
     </row>
@@ -986,16 +1022,16 @@
         <v>AOB-1001</v>
       </c>
       <c r="G13" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_AOB-1001</v>
       </c>
       <c r="H13" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I13" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J13" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K13" t="str">
         <v/>
@@ -1010,6 +1046,9 @@
         <v/>
       </c>
       <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
         <v/>
       </c>
     </row>
@@ -1033,16 +1072,16 @@
         <v>AOB-1002</v>
       </c>
       <c r="G14" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_AOB-1002</v>
       </c>
       <c r="H14" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I14" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J14" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K14" t="str">
         <v/>
@@ -1057,6 +1096,9 @@
         <v/>
       </c>
       <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
         <v/>
       </c>
     </row>
@@ -1080,16 +1122,16 @@
         <v>AOB-1003</v>
       </c>
       <c r="G15" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_AOB-1003</v>
       </c>
       <c r="H15" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I15" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K15" t="str">
         <v/>
@@ -1104,6 +1146,9 @@
         <v/>
       </c>
       <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
         <v/>
       </c>
     </row>
@@ -1127,16 +1172,16 @@
         <v>AOB-1004</v>
       </c>
       <c r="G16" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_AOB-1004</v>
       </c>
       <c r="H16" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I16" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J16" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K16" t="str">
         <v/>
@@ -1151,6 +1196,9 @@
         <v/>
       </c>
       <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
         <v/>
       </c>
     </row>
@@ -1174,16 +1222,16 @@
         <v>AOB-1005</v>
       </c>
       <c r="G17" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_AOB-1005</v>
       </c>
       <c r="H17" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I17" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J17" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K17" t="str">
         <v/>
@@ -1198,6 +1246,9 @@
         <v/>
       </c>
       <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
         <v/>
       </c>
     </row>
@@ -1221,16 +1272,16 @@
         <v>AOB-1006</v>
       </c>
       <c r="G18" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_AOB-1006</v>
       </c>
       <c r="H18" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I18" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J18" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K18" t="str">
         <v/>
@@ -1245,6 +1296,9 @@
         <v/>
       </c>
       <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
         <v/>
       </c>
     </row>
@@ -1268,16 +1322,16 @@
         <v>AOB-1007</v>
       </c>
       <c r="G19" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_AOB-1007</v>
       </c>
       <c r="H19" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I19" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J19" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K19" t="str">
         <v/>
@@ -1292,6 +1346,9 @@
         <v/>
       </c>
       <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
         <v/>
       </c>
     </row>
@@ -1315,16 +1372,16 @@
         <v>AOB-1008</v>
       </c>
       <c r="G20" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_AOB-1008</v>
       </c>
       <c r="H20" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I20" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K20" t="str">
         <v/>
@@ -1339,6 +1396,9 @@
         <v/>
       </c>
       <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
         <v/>
       </c>
     </row>
@@ -1362,16 +1422,16 @@
         <v>SA-1001</v>
       </c>
       <c r="G21" t="str">
+        <v>BRH_Phase_1_AOB102_SA-1001</v>
+      </c>
+      <c r="H21" t="str">
         <v>Safety</v>
       </c>
-      <c r="H21" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I21" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J21" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K21" t="str">
         <v/>
@@ -1386,6 +1446,9 @@
         <v/>
       </c>
       <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
         <v/>
       </c>
     </row>
@@ -1409,16 +1472,16 @@
         <v>SA-1002</v>
       </c>
       <c r="G22" t="str">
+        <v>BRH_Phase_1_AOB102_SA-1002</v>
+      </c>
+      <c r="H22" t="str">
         <v>Safety</v>
       </c>
-      <c r="H22" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I22" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J22" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K22" t="str">
         <v/>
@@ -1433,6 +1496,9 @@
         <v/>
       </c>
       <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
         <v/>
       </c>
     </row>
@@ -1456,16 +1522,16 @@
         <v>CH-1001</v>
       </c>
       <c r="G23" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_CH-1001</v>
       </c>
       <c r="H23" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I23" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J23" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K23" t="str">
         <v/>
@@ -1480,6 +1546,9 @@
         <v/>
       </c>
       <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
         <v/>
       </c>
     </row>
@@ -1503,16 +1572,16 @@
         <v>CH-1002</v>
       </c>
       <c r="G24" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_CH-1002</v>
       </c>
       <c r="H24" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I24" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J24" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K24" t="str">
         <v/>
@@ -1527,6 +1596,9 @@
         <v/>
       </c>
       <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
         <v/>
       </c>
     </row>
@@ -1550,16 +1622,16 @@
         <v>CH-1003</v>
       </c>
       <c r="G25" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_CH-1003</v>
       </c>
       <c r="H25" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I25" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J25" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K25" t="str">
         <v/>
@@ -1574,6 +1646,9 @@
         <v/>
       </c>
       <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
         <v/>
       </c>
     </row>
@@ -1597,16 +1672,16 @@
         <v>VT-0001</v>
       </c>
       <c r="G26" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB102_VT-0001</v>
       </c>
       <c r="H26" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I26" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K26" t="str">
         <v/>
@@ -1621,6 +1696,9 @@
         <v/>
       </c>
       <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
         <v/>
       </c>
     </row>
@@ -1644,16 +1722,16 @@
         <v>AOB-1001</v>
       </c>
       <c r="G27" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_AOB-1001</v>
       </c>
       <c r="H27" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I27" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J27" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K27" t="str">
         <v/>
@@ -1668,6 +1746,9 @@
         <v/>
       </c>
       <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
         <v/>
       </c>
     </row>
@@ -1691,16 +1772,16 @@
         <v>AOB-1002</v>
       </c>
       <c r="G28" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_AOB-1002</v>
       </c>
       <c r="H28" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I28" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K28" t="str">
         <v/>
@@ -1715,6 +1796,9 @@
         <v/>
       </c>
       <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
         <v/>
       </c>
     </row>
@@ -1738,16 +1822,16 @@
         <v>AOB-1003</v>
       </c>
       <c r="G29" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_AOB-1003</v>
       </c>
       <c r="H29" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I29" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J29" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K29" t="str">
         <v/>
@@ -1762,6 +1846,9 @@
         <v/>
       </c>
       <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
         <v/>
       </c>
     </row>
@@ -1785,16 +1872,16 @@
         <v>AOB-1004</v>
       </c>
       <c r="G30" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_AOB-1004</v>
       </c>
       <c r="H30" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I30" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J30" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K30" t="str">
         <v/>
@@ -1809,6 +1896,9 @@
         <v/>
       </c>
       <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
         <v/>
       </c>
     </row>
@@ -1832,16 +1922,16 @@
         <v>AOB-1005</v>
       </c>
       <c r="G31" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_AOB-1005</v>
       </c>
       <c r="H31" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I31" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J31" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K31" t="str">
         <v/>
@@ -1856,6 +1946,9 @@
         <v/>
       </c>
       <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
         <v/>
       </c>
     </row>
@@ -1879,16 +1972,16 @@
         <v>AOB-1006</v>
       </c>
       <c r="G32" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_AOB-1006</v>
       </c>
       <c r="H32" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I32" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K32" t="str">
         <v/>
@@ -1903,6 +1996,9 @@
         <v/>
       </c>
       <c r="O32" t="str">
+        <v/>
+      </c>
+      <c r="P32" t="str">
         <v/>
       </c>
     </row>
@@ -1926,16 +2022,16 @@
         <v>AOB-1007</v>
       </c>
       <c r="G33" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_AOB-1007</v>
       </c>
       <c r="H33" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I33" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J33" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K33" t="str">
         <v/>
@@ -1950,6 +2046,9 @@
         <v/>
       </c>
       <c r="O33" t="str">
+        <v/>
+      </c>
+      <c r="P33" t="str">
         <v/>
       </c>
     </row>
@@ -1973,16 +2072,16 @@
         <v>AOB-1008</v>
       </c>
       <c r="G34" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_AOB-1008</v>
       </c>
       <c r="H34" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I34" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J34" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -1997,6 +2096,9 @@
         <v/>
       </c>
       <c r="O34" t="str">
+        <v/>
+      </c>
+      <c r="P34" t="str">
         <v/>
       </c>
     </row>
@@ -2020,16 +2122,16 @@
         <v>SA-1001</v>
       </c>
       <c r="G35" t="str">
+        <v>BRH_Phase_1_AOB103_SA-1001</v>
+      </c>
+      <c r="H35" t="str">
         <v>Safety</v>
       </c>
-      <c r="H35" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I35" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J35" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K35" t="str">
         <v/>
@@ -2044,6 +2146,9 @@
         <v/>
       </c>
       <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
         <v/>
       </c>
     </row>
@@ -2067,16 +2172,16 @@
         <v>SA-1002</v>
       </c>
       <c r="G36" t="str">
+        <v>BRH_Phase_1_AOB103_SA-1002</v>
+      </c>
+      <c r="H36" t="str">
         <v>Safety</v>
       </c>
-      <c r="H36" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I36" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J36" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K36" t="str">
         <v/>
@@ -2091,6 +2196,9 @@
         <v/>
       </c>
       <c r="O36" t="str">
+        <v/>
+      </c>
+      <c r="P36" t="str">
         <v/>
       </c>
     </row>
@@ -2114,19 +2222,19 @@
         <v>CH-1001</v>
       </c>
       <c r="G37" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_CH-1001</v>
       </c>
       <c r="H37" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I37" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J37" t="str">
-        <v/>
+        <v>8/5/2025, 9:52:46 AM</v>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L37" t="str">
         <v/>
@@ -2138,6 +2246,9 @@
         <v/>
       </c>
       <c r="O37" t="str">
+        <v>546</v>
+      </c>
+      <c r="P37" t="str">
         <v/>
       </c>
     </row>
@@ -2161,19 +2272,19 @@
         <v>CH-1002</v>
       </c>
       <c r="G38" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_CH-1002</v>
       </c>
       <c r="H38" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I38" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J38" t="str">
-        <v/>
+        <v>8/5/2025, 9:52:44 AM</v>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L38" t="str">
         <v/>
@@ -2185,6 +2296,9 @@
         <v/>
       </c>
       <c r="O38" t="str">
+        <v>435</v>
+      </c>
+      <c r="P38" t="str">
         <v/>
       </c>
     </row>
@@ -2208,19 +2322,19 @@
         <v>CH-1003</v>
       </c>
       <c r="G39" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_CH-1003</v>
       </c>
       <c r="H39" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I39" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J39" t="str">
-        <v/>
+        <v>8/5/2025, 9:52:43 AM</v>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L39" t="str">
         <v/>
@@ -2232,6 +2346,9 @@
         <v/>
       </c>
       <c r="O39" t="str">
+        <v>435</v>
+      </c>
+      <c r="P39" t="str">
         <v/>
       </c>
     </row>
@@ -2255,30 +2372,33 @@
         <v>VT-0001</v>
       </c>
       <c r="G40" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_AOB103_VT-0001</v>
       </c>
       <c r="H40" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I40" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J40" t="str">
-        <v/>
+        <v>8/5/2025, 9:52:51 AM</v>
       </c>
       <c r="K40" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L40" t="str">
-        <v/>
+        <v>345</v>
       </c>
       <c r="M40" t="str">
-        <v/>
+        <v>2025-08-04T09:52</v>
       </c>
       <c r="N40" t="str">
-        <v/>
+        <v>2025-08-03T09:52</v>
       </c>
       <c r="O40" t="str">
+        <v/>
+      </c>
+      <c r="P40" t="str">
         <v/>
       </c>
     </row>
@@ -2290,28 +2410,28 @@
         <v>Phase 1</v>
       </c>
       <c r="C41" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D41" t="str">
-        <v>SYSTEM</v>
+        <v>FLIB104</v>
       </c>
       <c r="E41" t="str">
-        <v>Messaging</v>
+        <v>GAC</v>
       </c>
       <c r="F41" t="str">
-        <v>AIB-SYS-101</v>
+        <v>FLIB-1001</v>
       </c>
       <c r="G41" t="str">
-        <v>System</v>
+        <v>BRH_Phase_1_FLIB104_FLIB-1001</v>
       </c>
       <c r="H41" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I41" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J41" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K41" t="str">
         <v/>
@@ -2326,6 +2446,9 @@
         <v/>
       </c>
       <c r="O41" t="str">
+        <v/>
+      </c>
+      <c r="P41" t="str">
         <v/>
       </c>
     </row>
@@ -2337,28 +2460,28 @@
         <v>Phase 1</v>
       </c>
       <c r="C42" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D42" t="str">
-        <v>SYSTEM</v>
+        <v>FLIB104</v>
       </c>
       <c r="E42" t="str">
-        <v>LPN</v>
+        <v>Switch table</v>
       </c>
       <c r="F42" t="str">
-        <v>AIB-SYS-102</v>
+        <v>FLIB-1002</v>
       </c>
       <c r="G42" t="str">
-        <v>System</v>
+        <v>BRH_Phase_1_FLIB104_FLIB-1002</v>
       </c>
       <c r="H42" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I42" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J42" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K42" t="str">
         <v/>
@@ -2373,6 +2496,9 @@
         <v/>
       </c>
       <c r="O42" t="str">
+        <v/>
+      </c>
+      <c r="P42" t="str">
         <v/>
       </c>
     </row>
@@ -2384,28 +2510,28 @@
         <v>Phase 1</v>
       </c>
       <c r="C43" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D43" t="str">
-        <v>SYSTEM</v>
+        <v>FLIB104</v>
       </c>
       <c r="E43" t="str">
-        <v>Messaging</v>
+        <v>Length</v>
       </c>
       <c r="F43" t="str">
-        <v>AOB-SYS-101</v>
+        <v>FLIB-1003</v>
       </c>
       <c r="G43" t="str">
-        <v>System</v>
+        <v>BRH_Phase_1_FLIB104_FLIB-1003</v>
       </c>
       <c r="H43" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I43" t="str">
-        <v>8/4/2025, 11:40:32 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J43" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K43" t="str">
         <v/>
@@ -2420,39 +2546,42 @@
         <v/>
       </c>
       <c r="O43" t="str">
+        <v/>
+      </c>
+      <c r="P43" t="str">
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B44" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C44" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D44" t="str">
-        <v>AIB201</v>
+        <v>FLIB104</v>
       </c>
       <c r="E44" t="str">
-        <v>Depal</v>
+        <v>Width</v>
       </c>
       <c r="F44" t="str">
-        <v>AIB-1001</v>
+        <v>FLIB-1004</v>
       </c>
       <c r="G44" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB104_FLIB-1004</v>
       </c>
       <c r="H44" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I44" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J44" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K44" t="str">
         <v/>
@@ -2467,39 +2596,42 @@
         <v/>
       </c>
       <c r="O44" t="str">
+        <v/>
+      </c>
+      <c r="P44" t="str">
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B45" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C45" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D45" t="str">
-        <v>AIB201</v>
+        <v>FLIB104</v>
       </c>
       <c r="E45" t="str">
-        <v>BSSR</v>
+        <v>Height</v>
       </c>
       <c r="F45" t="str">
-        <v>AIB-1002</v>
+        <v>FLIB-1005</v>
       </c>
       <c r="G45" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB104_FLIB-1005</v>
       </c>
       <c r="H45" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I45" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J45" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K45" t="str">
         <v/>
@@ -2514,39 +2646,42 @@
         <v/>
       </c>
       <c r="O45" t="str">
+        <v/>
+      </c>
+      <c r="P45" t="str">
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B46" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C46" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D46" t="str">
-        <v>AIB201</v>
+        <v>FLIB104</v>
       </c>
       <c r="E46" t="str">
-        <v>Case Tipper</v>
+        <v>Extendable E-stop</v>
       </c>
       <c r="F46" t="str">
-        <v>AIB-1003</v>
+        <v>SA-1003</v>
       </c>
       <c r="G46" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB104_SA-1003</v>
       </c>
       <c r="H46" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I46" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J46" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K46" t="str">
         <v/>
@@ -2561,39 +2696,42 @@
         <v/>
       </c>
       <c r="O46" t="str">
+        <v/>
+      </c>
+      <c r="P46" t="str">
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B47" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C47" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D47" t="str">
-        <v>AIB201</v>
+        <v>FLIB104</v>
       </c>
       <c r="E47" t="str">
-        <v>CIS</v>
+        <v>E-Stop</v>
       </c>
       <c r="F47" t="str">
-        <v>AIB-1004</v>
+        <v>SA-1001</v>
       </c>
       <c r="G47" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB104_SA-1001</v>
       </c>
       <c r="H47" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I47" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J47" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K47" t="str">
         <v/>
@@ -2608,39 +2746,42 @@
         <v/>
       </c>
       <c r="O47" t="str">
+        <v/>
+      </c>
+      <c r="P47" t="str">
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B48" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C48" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D48" t="str">
-        <v>AIB201</v>
+        <v>FLIB104</v>
       </c>
       <c r="E48" t="str">
-        <v>Reject line</v>
+        <v>Interlocks</v>
       </c>
       <c r="F48" t="str">
-        <v>AIB-1005</v>
+        <v>SA-1002</v>
       </c>
       <c r="G48" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB104_SA-1002</v>
       </c>
       <c r="H48" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I48" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J48" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K48" t="str">
         <v/>
@@ -2655,42 +2796,45 @@
         <v/>
       </c>
       <c r="O48" t="str">
+        <v/>
+      </c>
+      <c r="P48" t="str">
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B49" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C49" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D49" t="str">
-        <v>AIB201</v>
+        <v>FLIB104</v>
       </c>
       <c r="E49" t="str">
-        <v>E-Stop</v>
+        <v>Cell Hardening - 1</v>
       </c>
       <c r="F49" t="str">
-        <v>SA-1001</v>
+        <v>CH-1001</v>
       </c>
       <c r="G49" t="str">
-        <v>Safety</v>
+        <v>BRH_Phase_1_FLIB104_CH-1001</v>
       </c>
       <c r="H49" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I49" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J49" t="str">
-        <v/>
+        <v>8/5/2025, 10:40:45 AM</v>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L49" t="str">
         <v/>
@@ -2702,42 +2846,45 @@
         <v/>
       </c>
       <c r="O49" t="str">
+        <v>34566</v>
+      </c>
+      <c r="P49" t="str">
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B50" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C50" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D50" t="str">
-        <v>AIB201</v>
+        <v>FLIB104</v>
       </c>
       <c r="E50" t="str">
-        <v>Interlocks</v>
+        <v>Cell Hardening - 2</v>
       </c>
       <c r="F50" t="str">
-        <v>SA-1002</v>
+        <v>CH-1002</v>
       </c>
       <c r="G50" t="str">
-        <v>Safety</v>
+        <v>BRH_Phase_1_FLIB104_CH-1002</v>
       </c>
       <c r="H50" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I50" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J50" t="str">
-        <v/>
+        <v>8/5/2025, 10:40:54 AM</v>
       </c>
       <c r="K50" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L50" t="str">
         <v/>
@@ -2749,39 +2896,42 @@
         <v/>
       </c>
       <c r="O50" t="str">
-        <v/>
+        <v>56677</v>
+      </c>
+      <c r="P50" t="str">
+        <v>2025-08-12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B51" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C51" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D51" t="str">
-        <v>AIB201</v>
+        <v>FLIB104</v>
       </c>
       <c r="E51" t="str">
-        <v>Cell Hardening - 1</v>
+        <v>Cell Hardening - 3</v>
       </c>
       <c r="F51" t="str">
-        <v>CH-1001</v>
+        <v>CH-1003</v>
       </c>
       <c r="G51" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB104_CH-1003</v>
       </c>
       <c r="H51" t="str">
-        <v>DATA_ENTRY</v>
+        <v>Cell</v>
       </c>
       <c r="I51" t="str">
-        <v>8/4/2025, 11:44:08 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J51" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K51" t="str">
         <v/>
@@ -2793,89 +2943,95 @@
         <v/>
       </c>
       <c r="N51" t="str">
-        <v>32</v>
+        <v/>
       </c>
       <c r="O51" t="str">
-        <v>2025-08-01</v>
+        <v/>
+      </c>
+      <c r="P51" t="str">
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B52" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C52" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D52" t="str">
-        <v>AIB201</v>
+        <v>FLIB104</v>
       </c>
       <c r="E52" t="str">
-        <v>Cell Hardening - 2</v>
+        <v>Volume Test</v>
       </c>
       <c r="F52" t="str">
-        <v>CH-1002</v>
+        <v>VT-0001</v>
       </c>
       <c r="G52" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB104_VT-0001</v>
       </c>
       <c r="H52" t="str">
-        <v>DATA_ENTRY</v>
+        <v>Cell</v>
       </c>
       <c r="I52" t="str">
-        <v>8/4/2025, 11:48:55 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J52" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 10:41:02 AM</v>
       </c>
       <c r="K52" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L52" t="str">
-        <v/>
+        <v>5557</v>
       </c>
       <c r="M52" t="str">
-        <v/>
+        <v>2025-08-05T10:40</v>
       </c>
       <c r="N52" t="str">
-        <v>343</v>
+        <v>2025-08-03T10:41</v>
       </c>
       <c r="O52" t="str">
-        <v>2025-08-02</v>
+        <v/>
+      </c>
+      <c r="P52" t="str">
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B53" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C53" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D53" t="str">
-        <v>AIB201</v>
+        <v>FLIB105</v>
       </c>
       <c r="E53" t="str">
-        <v>Cell Hardening - 3</v>
+        <v>GAC</v>
       </c>
       <c r="F53" t="str">
-        <v>CH-1003</v>
+        <v>FLIB-1001</v>
       </c>
       <c r="G53" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_FLIB-1001</v>
       </c>
       <c r="H53" t="str">
-        <v>DATA_ENTRY</v>
+        <v>Cell</v>
       </c>
       <c r="I53" t="str">
-        <v>8/4/2025, 11:48:57 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J53" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K53" t="str">
         <v/>
@@ -2887,89 +3043,95 @@
         <v/>
       </c>
       <c r="N53" t="str">
-        <v>2433</v>
+        <v/>
       </c>
       <c r="O53" t="str">
-        <v>2025-08-03</v>
+        <v/>
+      </c>
+      <c r="P53" t="str">
+        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B54" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C54" t="str">
-        <v>AIB</v>
+        <v>FLIB</v>
       </c>
       <c r="D54" t="str">
-        <v>AIB201</v>
+        <v>FLIB105</v>
       </c>
       <c r="E54" t="str">
-        <v>Volume Test</v>
+        <v>Switch table</v>
       </c>
       <c r="F54" t="str">
-        <v>VT-0001</v>
+        <v>FLIB-1002</v>
       </c>
       <c r="G54" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_FLIB-1002</v>
       </c>
       <c r="H54" t="str">
-        <v>DATA_ENTRY</v>
+        <v>Cell</v>
       </c>
       <c r="I54" t="str">
-        <v>8/4/2025, 11:49:05 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J54" t="str">
-        <v>Test Engineer</v>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K54" t="str">
-        <v>4234</v>
+        <v/>
       </c>
       <c r="L54" t="str">
-        <v>2025-08-03T23:49</v>
+        <v/>
       </c>
       <c r="M54" t="str">
-        <v>2025-08-03T18:49</v>
+        <v/>
       </c>
       <c r="N54" t="str">
         <v/>
       </c>
       <c r="O54" t="str">
+        <v/>
+      </c>
+      <c r="P54" t="str">
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B55" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C55" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D55" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E55" t="str">
-        <v>Case Labeler</v>
+        <v>Length</v>
       </c>
       <c r="F55" t="str">
-        <v>AOB-1001</v>
+        <v>FLIB-1003</v>
       </c>
       <c r="G55" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_FLIB-1003</v>
       </c>
       <c r="H55" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I55" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J55" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K55" t="str">
         <v/>
@@ -2984,39 +3146,42 @@
         <v/>
       </c>
       <c r="O55" t="str">
+        <v/>
+      </c>
+      <c r="P55" t="str">
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B56" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C56" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D56" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E56" t="str">
-        <v>Case Labeler - D1</v>
+        <v>Width</v>
       </c>
       <c r="F56" t="str">
-        <v>AOB-1002</v>
+        <v>FLIB-1004</v>
       </c>
       <c r="G56" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_FLIB-1004</v>
       </c>
       <c r="H56" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I56" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J56" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K56" t="str">
         <v/>
@@ -3031,39 +3196,42 @@
         <v/>
       </c>
       <c r="O56" t="str">
+        <v/>
+      </c>
+      <c r="P56" t="str">
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B57" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C57" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D57" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E57" t="str">
-        <v>Case Labeler - D2</v>
+        <v>Height</v>
       </c>
       <c r="F57" t="str">
-        <v>AOB-1003</v>
+        <v>FLIB-1005</v>
       </c>
       <c r="G57" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_FLIB-1005</v>
       </c>
       <c r="H57" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I57" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J57" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K57" t="str">
         <v/>
@@ -3078,39 +3246,42 @@
         <v/>
       </c>
       <c r="O57" t="str">
+        <v/>
+      </c>
+      <c r="P57" t="str">
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B58" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C58" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D58" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E58" t="str">
-        <v>Manual Palletization</v>
+        <v>Extendable E-stop</v>
       </c>
       <c r="F58" t="str">
-        <v>AOB-1004</v>
+        <v>SA-1003</v>
       </c>
       <c r="G58" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_SA-1003</v>
       </c>
       <c r="H58" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I58" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J58" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K58" t="str">
         <v/>
@@ -3125,39 +3296,42 @@
         <v/>
       </c>
       <c r="O58" t="str">
+        <v/>
+      </c>
+      <c r="P58" t="str">
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B59" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C59" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D59" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E59" t="str">
-        <v>Fallen Case</v>
+        <v>E-Stop</v>
       </c>
       <c r="F59" t="str">
-        <v>AOB-1005</v>
+        <v>SA-1001</v>
       </c>
       <c r="G59" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_SA-1001</v>
       </c>
       <c r="H59" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I59" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J59" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K59" t="str">
         <v/>
@@ -3172,39 +3346,42 @@
         <v/>
       </c>
       <c r="O59" t="str">
+        <v/>
+      </c>
+      <c r="P59" t="str">
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B60" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C60" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D60" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E60" t="str">
-        <v>PBA</v>
+        <v>Interlocks</v>
       </c>
       <c r="F60" t="str">
-        <v>AOB-1006</v>
+        <v>SA-1002</v>
       </c>
       <c r="G60" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_SA-1002</v>
       </c>
       <c r="H60" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I60" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J60" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K60" t="str">
         <v/>
@@ -3219,39 +3396,42 @@
         <v/>
       </c>
       <c r="O60" t="str">
+        <v/>
+      </c>
+      <c r="P60" t="str">
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B61" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C61" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D61" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E61" t="str">
-        <v>Pallet PNA</v>
+        <v>Cell Hardening - 1</v>
       </c>
       <c r="F61" t="str">
-        <v>AOB-1007</v>
+        <v>CH-1001</v>
       </c>
       <c r="G61" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_CH-1001</v>
       </c>
       <c r="H61" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I61" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J61" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K61" t="str">
         <v/>
@@ -3266,39 +3446,42 @@
         <v/>
       </c>
       <c r="O61" t="str">
+        <v/>
+      </c>
+      <c r="P61" t="str">
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B62" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C62" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D62" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E62" t="str">
-        <v>Backup printer</v>
+        <v>Cell Hardening - 2</v>
       </c>
       <c r="F62" t="str">
-        <v>AOB-1008</v>
+        <v>CH-1002</v>
       </c>
       <c r="G62" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB105_CH-1002</v>
       </c>
       <c r="H62" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I62" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J62" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K62" t="str">
         <v/>
@@ -3313,39 +3496,42 @@
         <v/>
       </c>
       <c r="O62" t="str">
+        <v/>
+      </c>
+      <c r="P62" t="str">
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B63" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C63" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D63" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E63" t="str">
-        <v>E-Stop</v>
+        <v>Cell Hardening - 3</v>
       </c>
       <c r="F63" t="str">
-        <v>SA-1001</v>
+        <v>CH-1003</v>
       </c>
       <c r="G63" t="str">
-        <v>Safety</v>
+        <v>BRH_Phase_1_FLIB105_CH-1003</v>
       </c>
       <c r="H63" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I63" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J63" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K63" t="str">
         <v/>
@@ -3360,39 +3546,42 @@
         <v/>
       </c>
       <c r="O63" t="str">
+        <v/>
+      </c>
+      <c r="P63" t="str">
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B64" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C64" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D64" t="str">
-        <v>AOB202</v>
+        <v>FLIB105</v>
       </c>
       <c r="E64" t="str">
-        <v>Interlocks</v>
+        <v>Volume Test</v>
       </c>
       <c r="F64" t="str">
-        <v>SA-1002</v>
+        <v>VT-0001</v>
       </c>
       <c r="G64" t="str">
-        <v>Safety</v>
+        <v>BRH_Phase_1_FLIB105_VT-0001</v>
       </c>
       <c r="H64" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I64" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J64" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K64" t="str">
         <v/>
@@ -3407,39 +3596,42 @@
         <v/>
       </c>
       <c r="O64" t="str">
+        <v/>
+      </c>
+      <c r="P64" t="str">
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B65" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C65" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D65" t="str">
-        <v>AOB202</v>
+        <v>FLIB106</v>
       </c>
       <c r="E65" t="str">
-        <v>Cell Hardening - 1</v>
+        <v>GAC</v>
       </c>
       <c r="F65" t="str">
-        <v>CH-1001</v>
+        <v>FLIB-1001</v>
       </c>
       <c r="G65" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_FLIB-1001</v>
       </c>
       <c r="H65" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I65" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J65" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K65" t="str">
         <v/>
@@ -3454,39 +3646,42 @@
         <v/>
       </c>
       <c r="O65" t="str">
+        <v/>
+      </c>
+      <c r="P65" t="str">
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B66" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C66" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D66" t="str">
-        <v>AOB202</v>
+        <v>FLIB106</v>
       </c>
       <c r="E66" t="str">
-        <v>Cell Hardening - 2</v>
+        <v>Switch table</v>
       </c>
       <c r="F66" t="str">
-        <v>CH-1002</v>
+        <v>FLIB-1002</v>
       </c>
       <c r="G66" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_FLIB-1002</v>
       </c>
       <c r="H66" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I66" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J66" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K66" t="str">
         <v/>
@@ -3501,39 +3696,42 @@
         <v/>
       </c>
       <c r="O66" t="str">
+        <v/>
+      </c>
+      <c r="P66" t="str">
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B67" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C67" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D67" t="str">
-        <v>AOB202</v>
+        <v>FLIB106</v>
       </c>
       <c r="E67" t="str">
-        <v>Cell Hardening - 3</v>
+        <v>Length</v>
       </c>
       <c r="F67" t="str">
-        <v>CH-1003</v>
+        <v>FLIB-1003</v>
       </c>
       <c r="G67" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_FLIB-1003</v>
       </c>
       <c r="H67" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I67" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J67" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K67" t="str">
         <v/>
@@ -3548,39 +3746,42 @@
         <v/>
       </c>
       <c r="O67" t="str">
+        <v/>
+      </c>
+      <c r="P67" t="str">
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B68" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C68" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D68" t="str">
-        <v>AOB202</v>
+        <v>FLIB106</v>
       </c>
       <c r="E68" t="str">
-        <v>Volume Test</v>
+        <v>Width</v>
       </c>
       <c r="F68" t="str">
-        <v>VT-0001</v>
+        <v>FLIB-1004</v>
       </c>
       <c r="G68" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_FLIB-1004</v>
       </c>
       <c r="H68" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I68" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J68" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K68" t="str">
         <v/>
@@ -3595,39 +3796,42 @@
         <v/>
       </c>
       <c r="O68" t="str">
+        <v/>
+      </c>
+      <c r="P68" t="str">
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B69" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C69" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D69" t="str">
-        <v>AOB203</v>
+        <v>FLIB106</v>
       </c>
       <c r="E69" t="str">
-        <v>Case Labeler</v>
+        <v>Height</v>
       </c>
       <c r="F69" t="str">
-        <v>AOB-1001</v>
+        <v>FLIB-1005</v>
       </c>
       <c r="G69" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_FLIB-1005</v>
       </c>
       <c r="H69" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I69" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J69" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K69" t="str">
         <v/>
@@ -3642,39 +3846,42 @@
         <v/>
       </c>
       <c r="O69" t="str">
+        <v/>
+      </c>
+      <c r="P69" t="str">
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B70" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C70" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D70" t="str">
-        <v>AOB203</v>
+        <v>FLIB106</v>
       </c>
       <c r="E70" t="str">
-        <v>Case Labeler - D1</v>
+        <v>Extendable E-stop</v>
       </c>
       <c r="F70" t="str">
-        <v>AOB-1002</v>
+        <v>SA-1003</v>
       </c>
       <c r="G70" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_SA-1003</v>
       </c>
       <c r="H70" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I70" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J70" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K70" t="str">
         <v/>
@@ -3689,39 +3896,42 @@
         <v/>
       </c>
       <c r="O70" t="str">
+        <v/>
+      </c>
+      <c r="P70" t="str">
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B71" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C71" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D71" t="str">
-        <v>AOB203</v>
+        <v>FLIB106</v>
       </c>
       <c r="E71" t="str">
-        <v>Case Labeler - D2</v>
+        <v>E-Stop</v>
       </c>
       <c r="F71" t="str">
-        <v>AOB-1003</v>
+        <v>SA-1001</v>
       </c>
       <c r="G71" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_SA-1001</v>
       </c>
       <c r="H71" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I71" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J71" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K71" t="str">
         <v/>
@@ -3736,39 +3946,42 @@
         <v/>
       </c>
       <c r="O71" t="str">
+        <v/>
+      </c>
+      <c r="P71" t="str">
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B72" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C72" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D72" t="str">
-        <v>AOB203</v>
+        <v>FLIB106</v>
       </c>
       <c r="E72" t="str">
-        <v>Manual Palletization</v>
+        <v>Interlocks</v>
       </c>
       <c r="F72" t="str">
-        <v>AOB-1004</v>
+        <v>SA-1002</v>
       </c>
       <c r="G72" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_SA-1002</v>
       </c>
       <c r="H72" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I72" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J72" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K72" t="str">
         <v/>
@@ -3783,39 +3996,42 @@
         <v/>
       </c>
       <c r="O72" t="str">
+        <v/>
+      </c>
+      <c r="P72" t="str">
         <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B73" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C73" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D73" t="str">
-        <v>AOB203</v>
+        <v>FLIB106</v>
       </c>
       <c r="E73" t="str">
-        <v>Fallen Case</v>
+        <v>Cell Hardening - 1</v>
       </c>
       <c r="F73" t="str">
-        <v>AOB-1005</v>
+        <v>CH-1001</v>
       </c>
       <c r="G73" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_CH-1001</v>
       </c>
       <c r="H73" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I73" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J73" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K73" t="str">
         <v/>
@@ -3830,39 +4046,42 @@
         <v/>
       </c>
       <c r="O73" t="str">
+        <v/>
+      </c>
+      <c r="P73" t="str">
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B74" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C74" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D74" t="str">
-        <v>AOB203</v>
+        <v>FLIB106</v>
       </c>
       <c r="E74" t="str">
-        <v>PBA</v>
+        <v>Cell Hardening - 2</v>
       </c>
       <c r="F74" t="str">
-        <v>AOB-1006</v>
+        <v>CH-1002</v>
       </c>
       <c r="G74" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_CH-1002</v>
       </c>
       <c r="H74" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I74" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J74" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K74" t="str">
         <v/>
@@ -3877,39 +4096,42 @@
         <v/>
       </c>
       <c r="O74" t="str">
+        <v/>
+      </c>
+      <c r="P74" t="str">
         <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B75" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C75" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D75" t="str">
-        <v>AOB203</v>
+        <v>FLIB106</v>
       </c>
       <c r="E75" t="str">
-        <v>Pallet PNA</v>
+        <v>Cell Hardening - 3</v>
       </c>
       <c r="F75" t="str">
-        <v>AOB-1007</v>
+        <v>CH-1003</v>
       </c>
       <c r="G75" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_CH-1003</v>
       </c>
       <c r="H75" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I75" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J75" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K75" t="str">
         <v/>
@@ -3924,39 +4146,42 @@
         <v/>
       </c>
       <c r="O75" t="str">
+        <v/>
+      </c>
+      <c r="P75" t="str">
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B76" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C76" t="str">
-        <v>AOB</v>
+        <v>FLIB</v>
       </c>
       <c r="D76" t="str">
-        <v>AOB203</v>
+        <v>FLIB106</v>
       </c>
       <c r="E76" t="str">
-        <v>Backup printer</v>
+        <v>Volume Test</v>
       </c>
       <c r="F76" t="str">
-        <v>AOB-1008</v>
+        <v>VT-0001</v>
       </c>
       <c r="G76" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_FLIB106_VT-0001</v>
       </c>
       <c r="H76" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I76" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J76" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K76" t="str">
         <v/>
@@ -3971,39 +4196,42 @@
         <v/>
       </c>
       <c r="O76" t="str">
+        <v/>
+      </c>
+      <c r="P76" t="str">
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B77" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C77" t="str">
-        <v>AOB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D77" t="str">
-        <v>AOB203</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E77" t="str">
-        <v>E-Stop</v>
+        <v>GAC</v>
       </c>
       <c r="F77" t="str">
-        <v>SA-1001</v>
+        <v>MCPIB-1001</v>
       </c>
       <c r="G77" t="str">
-        <v>Safety</v>
+        <v>BRH_Phase_1_MCPIB1_MCPIB-1001</v>
       </c>
       <c r="H77" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I77" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J77" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K77" t="str">
         <v/>
@@ -4018,39 +4246,42 @@
         <v/>
       </c>
       <c r="O77" t="str">
+        <v/>
+      </c>
+      <c r="P77" t="str">
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B78" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C78" t="str">
-        <v>AOB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D78" t="str">
-        <v>AOB203</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E78" t="str">
-        <v>Interlocks</v>
+        <v>Switch table</v>
       </c>
       <c r="F78" t="str">
-        <v>SA-1002</v>
+        <v>MCPIB-1002</v>
       </c>
       <c r="G78" t="str">
-        <v>Safety</v>
+        <v>BRH_Phase_1_MCPIB1_MCPIB-1002</v>
       </c>
       <c r="H78" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I78" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J78" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K78" t="str">
         <v/>
@@ -4065,39 +4296,42 @@
         <v/>
       </c>
       <c r="O78" t="str">
+        <v/>
+      </c>
+      <c r="P78" t="str">
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B79" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C79" t="str">
-        <v>AOB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D79" t="str">
-        <v>AOB203</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E79" t="str">
-        <v>Cell Hardening - 1</v>
+        <v>Length</v>
       </c>
       <c r="F79" t="str">
-        <v>CH-1001</v>
+        <v>MCPIB-1003</v>
       </c>
       <c r="G79" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_MCPIB1_MCPIB-1003</v>
       </c>
       <c r="H79" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I79" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J79" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K79" t="str">
         <v/>
@@ -4112,39 +4346,42 @@
         <v/>
       </c>
       <c r="O79" t="str">
+        <v/>
+      </c>
+      <c r="P79" t="str">
         <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B80" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C80" t="str">
-        <v>AOB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D80" t="str">
-        <v>AOB203</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E80" t="str">
-        <v>Cell Hardening - 2</v>
+        <v>Width</v>
       </c>
       <c r="F80" t="str">
-        <v>CH-1002</v>
+        <v>MCPIB-1004</v>
       </c>
       <c r="G80" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_MCPIB1_MCPIB-1004</v>
       </c>
       <c r="H80" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I80" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J80" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K80" t="str">
         <v/>
@@ -4159,39 +4396,42 @@
         <v/>
       </c>
       <c r="O80" t="str">
+        <v/>
+      </c>
+      <c r="P80" t="str">
         <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B81" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C81" t="str">
-        <v>AOB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D81" t="str">
-        <v>AOB203</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E81" t="str">
-        <v>Cell Hardening - 3</v>
+        <v>Height</v>
       </c>
       <c r="F81" t="str">
-        <v>CH-1003</v>
+        <v>MCPIB-1005</v>
       </c>
       <c r="G81" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_MCPIB1_MCPIB-1005</v>
       </c>
       <c r="H81" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I81" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J81" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K81" t="str">
         <v/>
@@ -4206,39 +4446,42 @@
         <v/>
       </c>
       <c r="O81" t="str">
+        <v/>
+      </c>
+      <c r="P81" t="str">
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B82" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C82" t="str">
-        <v>AOB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D82" t="str">
-        <v>AOB203</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E82" t="str">
-        <v>Volume Test</v>
+        <v>CIS</v>
       </c>
       <c r="F82" t="str">
-        <v>VT-0001</v>
+        <v>MCPIB-1006</v>
       </c>
       <c r="G82" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_MCPIB1_MCPIB-1006</v>
       </c>
       <c r="H82" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I82" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J82" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K82" t="str">
         <v/>
@@ -4253,39 +4496,42 @@
         <v/>
       </c>
       <c r="O82" t="str">
+        <v/>
+      </c>
+      <c r="P82" t="str">
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B83" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C83" t="str">
-        <v>FLIB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D83" t="str">
-        <v>FLIB1</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E83" t="str">
-        <v>GAC</v>
+        <v>Pallet lift</v>
       </c>
       <c r="F83" t="str">
-        <v>FLIB-1001</v>
+        <v>MCPIB-1007</v>
       </c>
       <c r="G83" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_MCPIB1_MCPIB-1007</v>
       </c>
       <c r="H83" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I83" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J83" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K83" t="str">
         <v/>
@@ -4300,39 +4546,42 @@
         <v/>
       </c>
       <c r="O83" t="str">
+        <v/>
+      </c>
+      <c r="P83" t="str">
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B84" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C84" t="str">
-        <v>FLIB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D84" t="str">
-        <v>FLIB1</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E84" t="str">
-        <v>Switch table</v>
+        <v>E-Stop</v>
       </c>
       <c r="F84" t="str">
-        <v>FLIB-1002</v>
+        <v>SA-1001</v>
       </c>
       <c r="G84" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_MCPIB1_SA-1001</v>
       </c>
       <c r="H84" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I84" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J84" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K84" t="str">
         <v/>
@@ -4347,39 +4596,42 @@
         <v/>
       </c>
       <c r="O84" t="str">
+        <v/>
+      </c>
+      <c r="P84" t="str">
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B85" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C85" t="str">
-        <v>FLIB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D85" t="str">
-        <v>FLIB1</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E85" t="str">
-        <v>Length</v>
+        <v>Interlocks</v>
       </c>
       <c r="F85" t="str">
-        <v>FLIB-1003</v>
+        <v>SA-1002</v>
       </c>
       <c r="G85" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_MCPIB1_SA-1002</v>
       </c>
       <c r="H85" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I85" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J85" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K85" t="str">
         <v/>
@@ -4394,39 +4646,42 @@
         <v/>
       </c>
       <c r="O85" t="str">
+        <v/>
+      </c>
+      <c r="P85" t="str">
         <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B86" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C86" t="str">
-        <v>FLIB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D86" t="str">
-        <v>FLIB1</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E86" t="str">
-        <v>Width</v>
+        <v>Cell Hardening - 1</v>
       </c>
       <c r="F86" t="str">
-        <v>FLIB-1004</v>
+        <v>CH-1001</v>
       </c>
       <c r="G86" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_MCPIB1_CH-1001</v>
       </c>
       <c r="H86" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I86" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J86" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K86" t="str">
         <v/>
@@ -4441,39 +4696,42 @@
         <v/>
       </c>
       <c r="O86" t="str">
+        <v/>
+      </c>
+      <c r="P86" t="str">
         <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B87" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C87" t="str">
-        <v>FLIB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D87" t="str">
-        <v>FLIB1</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E87" t="str">
-        <v>Height</v>
+        <v>Cell Hardening - 2</v>
       </c>
       <c r="F87" t="str">
-        <v>FLIB-1005</v>
+        <v>CH-1002</v>
       </c>
       <c r="G87" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_MCPIB1_CH-1002</v>
       </c>
       <c r="H87" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I87" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J87" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K87" t="str">
         <v/>
@@ -4488,39 +4746,42 @@
         <v/>
       </c>
       <c r="O87" t="str">
+        <v/>
+      </c>
+      <c r="P87" t="str">
         <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B88" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C88" t="str">
-        <v>FLIB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D88" t="str">
-        <v>FLIB1</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E88" t="str">
-        <v>Extendable E-stop</v>
+        <v>Cell Hardening - 3</v>
       </c>
       <c r="F88" t="str">
-        <v>SA-1003</v>
+        <v>CH-1003</v>
       </c>
       <c r="G88" t="str">
-        <v>Safety</v>
+        <v>BRH_Phase_1_MCPIB1_CH-1003</v>
       </c>
       <c r="H88" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I88" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J88" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K88" t="str">
         <v/>
@@ -4535,39 +4796,42 @@
         <v/>
       </c>
       <c r="O88" t="str">
+        <v/>
+      </c>
+      <c r="P88" t="str">
         <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B89" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C89" t="str">
-        <v>FLIB</v>
+        <v>MCPIB</v>
       </c>
       <c r="D89" t="str">
-        <v>FLIB1</v>
+        <v>MCPIB1</v>
       </c>
       <c r="E89" t="str">
-        <v>E-Stop</v>
+        <v>Volume Test</v>
       </c>
       <c r="F89" t="str">
-        <v>SA-1001</v>
+        <v>VT-0001</v>
       </c>
       <c r="G89" t="str">
-        <v>Safety</v>
+        <v>BRH_Phase_1_MCPIB1_VT-0001</v>
       </c>
       <c r="H89" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I89" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J89" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K89" t="str">
         <v/>
@@ -4582,42 +4846,45 @@
         <v/>
       </c>
       <c r="O89" t="str">
+        <v/>
+      </c>
+      <c r="P89" t="str">
         <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B90" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C90" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D90" t="str">
-        <v>FLIB1</v>
+        <v>SYSTEM</v>
       </c>
       <c r="E90" t="str">
-        <v>Interlocks</v>
+        <v>Messaging</v>
       </c>
       <c r="F90" t="str">
-        <v>SA-1002</v>
+        <v>AIB-SYS-101</v>
       </c>
       <c r="G90" t="str">
-        <v>Safety</v>
+        <v>BRH_Phase_1_SYSTEM_AIB-SYS-101</v>
       </c>
       <c r="H90" t="str">
-        <v>NOT RUN</v>
+        <v>System</v>
       </c>
       <c r="I90" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>PASS</v>
       </c>
       <c r="J90" t="str">
-        <v/>
+        <v>8/5/2025, 10:30:00 AM</v>
       </c>
       <c r="K90" t="str">
-        <v/>
+        <v>Test User</v>
       </c>
       <c r="L90" t="str">
         <v/>
@@ -4629,39 +4896,42 @@
         <v/>
       </c>
       <c r="O90" t="str">
+        <v/>
+      </c>
+      <c r="P90" t="str">
         <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B91" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C91" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D91" t="str">
-        <v>FLIB1</v>
+        <v>SYSTEM</v>
       </c>
       <c r="E91" t="str">
-        <v>Cell Hardening - 1</v>
+        <v>LPN</v>
       </c>
       <c r="F91" t="str">
-        <v>CH-1001</v>
+        <v>AIB-SYS-102</v>
       </c>
       <c r="G91" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_SYSTEM_AIB-SYS-102</v>
       </c>
       <c r="H91" t="str">
-        <v>NOT RUN</v>
+        <v>System</v>
       </c>
       <c r="I91" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J91" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K91" t="str">
         <v/>
@@ -4676,39 +4946,42 @@
         <v/>
       </c>
       <c r="O91" t="str">
+        <v/>
+      </c>
+      <c r="P91" t="str">
         <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B92" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C92" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D92" t="str">
-        <v>FLIB1</v>
+        <v>SYSTEM</v>
       </c>
       <c r="E92" t="str">
-        <v>Cell Hardening - 2</v>
+        <v>Messaging</v>
       </c>
       <c r="F92" t="str">
-        <v>CH-1002</v>
+        <v>AOB-SYS-101</v>
       </c>
       <c r="G92" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_SYSTEM_AOB-SYS-101</v>
       </c>
       <c r="H92" t="str">
-        <v>NOT RUN</v>
+        <v>System</v>
       </c>
       <c r="I92" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J92" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:06 AM</v>
       </c>
       <c r="K92" t="str">
         <v/>
@@ -4723,42 +4996,45 @@
         <v/>
       </c>
       <c r="O92" t="str">
+        <v/>
+      </c>
+      <c r="P92" t="str">
         <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>MID</v>
+        <v>BRH</v>
       </c>
       <c r="B93" t="str">
-        <v>Phase 2</v>
+        <v>Phase 1</v>
       </c>
       <c r="C93" t="str">
         <v>FLIB</v>
       </c>
       <c r="D93" t="str">
-        <v>FLIB1</v>
+        <v>SYSTEM</v>
       </c>
       <c r="E93" t="str">
-        <v>Cell Hardening - 3</v>
+        <v>Messaging</v>
       </c>
       <c r="F93" t="str">
-        <v>CH-1003</v>
+        <v>FLIB-SYS-101</v>
       </c>
       <c r="G93" t="str">
-        <v>Cell</v>
+        <v>BRH_Phase_1_SYSTEM_FLIB-SYS-101</v>
       </c>
       <c r="H93" t="str">
-        <v>NOT RUN</v>
+        <v>System</v>
       </c>
       <c r="I93" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>PASS</v>
       </c>
       <c r="J93" t="str">
-        <v/>
+        <v>8/5/2025, 9:29:22 AM</v>
       </c>
       <c r="K93" t="str">
-        <v/>
+        <v>Test Engineer</v>
       </c>
       <c r="L93" t="str">
         <v/>
@@ -4770,39 +5046,42 @@
         <v/>
       </c>
       <c r="O93" t="str">
+        <v/>
+      </c>
+      <c r="P93" t="str">
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B94" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C94" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D94" t="str">
-        <v>FLIB1</v>
+        <v>AIB101</v>
       </c>
       <c r="E94" t="str">
-        <v>Volume Test</v>
+        <v>Depal</v>
       </c>
       <c r="F94" t="str">
-        <v>VT-0001</v>
+        <v>AIB-1001</v>
       </c>
       <c r="G94" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AIB101_AIB-1001</v>
       </c>
       <c r="H94" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I94" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J94" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K94" t="str">
         <v/>
@@ -4817,39 +5096,42 @@
         <v/>
       </c>
       <c r="O94" t="str">
+        <v/>
+      </c>
+      <c r="P94" t="str">
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B95" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C95" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D95" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E95" t="str">
-        <v>GAC</v>
+        <v>BSSR</v>
       </c>
       <c r="F95" t="str">
-        <v>FLIB-1001</v>
+        <v>AIB-1002</v>
       </c>
       <c r="G95" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AIB101_AIB-1002</v>
       </c>
       <c r="H95" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I95" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J95" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K95" t="str">
         <v/>
@@ -4864,39 +5146,42 @@
         <v/>
       </c>
       <c r="O95" t="str">
+        <v/>
+      </c>
+      <c r="P95" t="str">
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B96" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C96" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D96" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E96" t="str">
-        <v>Switch table</v>
+        <v>Case Tipper</v>
       </c>
       <c r="F96" t="str">
-        <v>FLIB-1002</v>
+        <v>AIB-1003</v>
       </c>
       <c r="G96" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AIB101_AIB-1003</v>
       </c>
       <c r="H96" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I96" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J96" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K96" t="str">
         <v/>
@@ -4911,39 +5196,42 @@
         <v/>
       </c>
       <c r="O96" t="str">
+        <v/>
+      </c>
+      <c r="P96" t="str">
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B97" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C97" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D97" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E97" t="str">
-        <v>Length</v>
+        <v>CIS</v>
       </c>
       <c r="F97" t="str">
-        <v>FLIB-1003</v>
+        <v>AIB-1004</v>
       </c>
       <c r="G97" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AIB101_AIB-1004</v>
       </c>
       <c r="H97" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I97" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J97" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K97" t="str">
         <v/>
@@ -4958,39 +5246,42 @@
         <v/>
       </c>
       <c r="O97" t="str">
+        <v/>
+      </c>
+      <c r="P97" t="str">
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B98" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C98" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D98" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E98" t="str">
-        <v>Width</v>
+        <v>Reject line</v>
       </c>
       <c r="F98" t="str">
-        <v>FLIB-1004</v>
+        <v>AIB-1005</v>
       </c>
       <c r="G98" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AIB101_AIB-1005</v>
       </c>
       <c r="H98" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I98" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J98" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K98" t="str">
         <v/>
@@ -5005,39 +5296,42 @@
         <v/>
       </c>
       <c r="O98" t="str">
+        <v/>
+      </c>
+      <c r="P98" t="str">
         <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B99" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C99" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D99" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E99" t="str">
-        <v>Height</v>
+        <v>E-Stop</v>
       </c>
       <c r="F99" t="str">
-        <v>FLIB-1005</v>
+        <v>SA-1001</v>
       </c>
       <c r="G99" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AIB101_SA-1001</v>
       </c>
       <c r="H99" t="str">
-        <v>NOT RUN</v>
+        <v>Safety</v>
       </c>
       <c r="I99" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J99" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K99" t="str">
         <v/>
@@ -5052,39 +5346,42 @@
         <v/>
       </c>
       <c r="O99" t="str">
+        <v/>
+      </c>
+      <c r="P99" t="str">
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B100" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C100" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D100" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E100" t="str">
-        <v>Extendable E-stop</v>
+        <v>Interlocks</v>
       </c>
       <c r="F100" t="str">
-        <v>SA-1003</v>
+        <v>SA-1002</v>
       </c>
       <c r="G100" t="str">
+        <v>PAL_Phase_2_AIB101_SA-1002</v>
+      </c>
+      <c r="H100" t="str">
         <v>Safety</v>
       </c>
-      <c r="H100" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I100" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J100" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K100" t="str">
         <v/>
@@ -5099,42 +5396,45 @@
         <v/>
       </c>
       <c r="O100" t="str">
+        <v/>
+      </c>
+      <c r="P100" t="str">
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B101" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C101" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D101" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E101" t="str">
-        <v>E-Stop</v>
+        <v>Cell Hardening - 1</v>
       </c>
       <c r="F101" t="str">
-        <v>SA-1001</v>
+        <v>CH-1001</v>
       </c>
       <c r="G101" t="str">
-        <v>Safety</v>
+        <v>PAL_Phase_2_AIB101_CH-1001</v>
       </c>
       <c r="H101" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I101" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J101" t="str">
-        <v/>
+        <v>8/5/2025, 9:38:15 AM</v>
       </c>
       <c r="K101" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L101" t="str">
         <v/>
@@ -5146,42 +5446,45 @@
         <v/>
       </c>
       <c r="O101" t="str">
-        <v/>
+        <v>542</v>
+      </c>
+      <c r="P101" t="str">
+        <v>2025-08-03</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B102" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C102" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D102" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E102" t="str">
-        <v>Interlocks</v>
+        <v>Cell Hardening - 2</v>
       </c>
       <c r="F102" t="str">
-        <v>SA-1002</v>
+        <v>CH-1002</v>
       </c>
       <c r="G102" t="str">
-        <v>Safety</v>
+        <v>PAL_Phase_2_AIB101_CH-1002</v>
       </c>
       <c r="H102" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I102" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J102" t="str">
-        <v/>
+        <v>8/5/2025, 9:38:13 AM</v>
       </c>
       <c r="K102" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L102" t="str">
         <v/>
@@ -5193,42 +5496,45 @@
         <v/>
       </c>
       <c r="O102" t="str">
-        <v/>
+        <v>4562</v>
+      </c>
+      <c r="P102" t="str">
+        <v>2025-08-03</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B103" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C103" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D103" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E103" t="str">
-        <v>Cell Hardening - 1</v>
+        <v>Cell Hardening - 3</v>
       </c>
       <c r="F103" t="str">
-        <v>CH-1001</v>
+        <v>CH-1003</v>
       </c>
       <c r="G103" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AIB101_CH-1003</v>
       </c>
       <c r="H103" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I103" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J103" t="str">
-        <v/>
+        <v>8/5/2025, 9:38:12 AM</v>
       </c>
       <c r="K103" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L103" t="str">
         <v/>
@@ -5240,86 +5546,92 @@
         <v/>
       </c>
       <c r="O103" t="str">
-        <v/>
+        <v>54245</v>
+      </c>
+      <c r="P103" t="str">
+        <v>2025-08-04</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B104" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C104" t="str">
-        <v>FLIB</v>
+        <v>AIB</v>
       </c>
       <c r="D104" t="str">
-        <v>FLIB2</v>
+        <v>AIB101</v>
       </c>
       <c r="E104" t="str">
-        <v>Cell Hardening - 2</v>
+        <v>Volume Test</v>
       </c>
       <c r="F104" t="str">
-        <v>CH-1002</v>
+        <v>VT-0001</v>
       </c>
       <c r="G104" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AIB101_VT-0001</v>
       </c>
       <c r="H104" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I104" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>FAIL</v>
       </c>
       <c r="J104" t="str">
-        <v/>
+        <v>8/5/2025, 10:02:19 AM</v>
       </c>
       <c r="K104" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L104" t="str">
-        <v/>
+        <v>4356</v>
       </c>
       <c r="M104" t="str">
-        <v/>
+        <v>2025-08-06T09:38</v>
       </c>
       <c r="N104" t="str">
-        <v/>
+        <v>2025-08-06T09:38</v>
       </c>
       <c r="O104" t="str">
+        <v/>
+      </c>
+      <c r="P104" t="str">
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B105" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C105" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D105" t="str">
-        <v>FLIB2</v>
+        <v>AOB102</v>
       </c>
       <c r="E105" t="str">
-        <v>Cell Hardening - 3</v>
+        <v>Case Labeler</v>
       </c>
       <c r="F105" t="str">
-        <v>CH-1003</v>
+        <v>AOB-1001</v>
       </c>
       <c r="G105" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_AOB-1001</v>
       </c>
       <c r="H105" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I105" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J105" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K105" t="str">
         <v/>
@@ -5334,39 +5646,42 @@
         <v/>
       </c>
       <c r="O105" t="str">
+        <v/>
+      </c>
+      <c r="P105" t="str">
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B106" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C106" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D106" t="str">
-        <v>FLIB2</v>
+        <v>AOB102</v>
       </c>
       <c r="E106" t="str">
-        <v>Volume Test</v>
+        <v>Case Labeler - D1</v>
       </c>
       <c r="F106" t="str">
-        <v>VT-0001</v>
+        <v>AOB-1002</v>
       </c>
       <c r="G106" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_AOB-1002</v>
       </c>
       <c r="H106" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I106" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J106" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K106" t="str">
         <v/>
@@ -5381,39 +5696,42 @@
         <v/>
       </c>
       <c r="O106" t="str">
+        <v/>
+      </c>
+      <c r="P106" t="str">
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B107" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C107" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D107" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E107" t="str">
-        <v>GAC</v>
+        <v>Case Labeler - D2</v>
       </c>
       <c r="F107" t="str">
-        <v>FLIB-1001</v>
+        <v>AOB-1003</v>
       </c>
       <c r="G107" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_AOB-1003</v>
       </c>
       <c r="H107" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I107" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J107" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K107" t="str">
         <v/>
@@ -5428,39 +5746,42 @@
         <v/>
       </c>
       <c r="O107" t="str">
+        <v/>
+      </c>
+      <c r="P107" t="str">
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B108" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C108" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D108" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E108" t="str">
-        <v>Switch table</v>
+        <v>Manual Palletization</v>
       </c>
       <c r="F108" t="str">
-        <v>FLIB-1002</v>
+        <v>AOB-1004</v>
       </c>
       <c r="G108" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_AOB-1004</v>
       </c>
       <c r="H108" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I108" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J108" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K108" t="str">
         <v/>
@@ -5475,39 +5796,42 @@
         <v/>
       </c>
       <c r="O108" t="str">
+        <v/>
+      </c>
+      <c r="P108" t="str">
         <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B109" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C109" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D109" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E109" t="str">
-        <v>Length</v>
+        <v>Fallen Case</v>
       </c>
       <c r="F109" t="str">
-        <v>FLIB-1003</v>
+        <v>AOB-1005</v>
       </c>
       <c r="G109" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_AOB-1005</v>
       </c>
       <c r="H109" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I109" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J109" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K109" t="str">
         <v/>
@@ -5522,39 +5846,42 @@
         <v/>
       </c>
       <c r="O109" t="str">
+        <v/>
+      </c>
+      <c r="P109" t="str">
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B110" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C110" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D110" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E110" t="str">
-        <v>Width</v>
+        <v>PBA</v>
       </c>
       <c r="F110" t="str">
-        <v>FLIB-1004</v>
+        <v>AOB-1006</v>
       </c>
       <c r="G110" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_AOB-1006</v>
       </c>
       <c r="H110" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I110" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J110" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K110" t="str">
         <v/>
@@ -5569,39 +5896,42 @@
         <v/>
       </c>
       <c r="O110" t="str">
+        <v/>
+      </c>
+      <c r="P110" t="str">
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B111" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C111" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D111" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E111" t="str">
-        <v>Height</v>
+        <v>Pallet PNA</v>
       </c>
       <c r="F111" t="str">
-        <v>FLIB-1005</v>
+        <v>AOB-1007</v>
       </c>
       <c r="G111" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_AOB-1007</v>
       </c>
       <c r="H111" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I111" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J111" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K111" t="str">
         <v/>
@@ -5616,39 +5946,42 @@
         <v/>
       </c>
       <c r="O111" t="str">
+        <v/>
+      </c>
+      <c r="P111" t="str">
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B112" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C112" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D112" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E112" t="str">
-        <v>Extendable E-stop</v>
+        <v>Backup printer</v>
       </c>
       <c r="F112" t="str">
-        <v>SA-1003</v>
+        <v>AOB-1008</v>
       </c>
       <c r="G112" t="str">
-        <v>Safety</v>
+        <v>PAL_Phase_2_AOB102_AOB-1008</v>
       </c>
       <c r="H112" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I112" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J112" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K112" t="str">
         <v/>
@@ -5663,21 +5996,24 @@
         <v/>
       </c>
       <c r="O112" t="str">
+        <v/>
+      </c>
+      <c r="P112" t="str">
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B113" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C113" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D113" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E113" t="str">
         <v>E-Stop</v>
@@ -5686,16 +6022,16 @@
         <v>SA-1001</v>
       </c>
       <c r="G113" t="str">
+        <v>PAL_Phase_2_AOB102_SA-1001</v>
+      </c>
+      <c r="H113" t="str">
         <v>Safety</v>
       </c>
-      <c r="H113" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I113" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J113" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K113" t="str">
         <v/>
@@ -5710,21 +6046,24 @@
         <v/>
       </c>
       <c r="O113" t="str">
+        <v/>
+      </c>
+      <c r="P113" t="str">
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B114" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C114" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D114" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E114" t="str">
         <v>Interlocks</v>
@@ -5733,16 +6072,16 @@
         <v>SA-1002</v>
       </c>
       <c r="G114" t="str">
+        <v>PAL_Phase_2_AOB102_SA-1002</v>
+      </c>
+      <c r="H114" t="str">
         <v>Safety</v>
       </c>
-      <c r="H114" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I114" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J114" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K114" t="str">
         <v/>
@@ -5757,21 +6096,24 @@
         <v/>
       </c>
       <c r="O114" t="str">
+        <v/>
+      </c>
+      <c r="P114" t="str">
         <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B115" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C115" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D115" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E115" t="str">
         <v>Cell Hardening - 1</v>
@@ -5780,16 +6122,16 @@
         <v>CH-1001</v>
       </c>
       <c r="G115" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_CH-1001</v>
       </c>
       <c r="H115" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I115" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J115" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K115" t="str">
         <v/>
@@ -5804,21 +6146,24 @@
         <v/>
       </c>
       <c r="O115" t="str">
+        <v/>
+      </c>
+      <c r="P115" t="str">
         <v/>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B116" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C116" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D116" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E116" t="str">
         <v>Cell Hardening - 2</v>
@@ -5827,16 +6172,16 @@
         <v>CH-1002</v>
       </c>
       <c r="G116" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_CH-1002</v>
       </c>
       <c r="H116" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I116" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J116" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K116" t="str">
         <v/>
@@ -5851,21 +6196,24 @@
         <v/>
       </c>
       <c r="O116" t="str">
+        <v/>
+      </c>
+      <c r="P116" t="str">
         <v/>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B117" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C117" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D117" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E117" t="str">
         <v>Cell Hardening - 3</v>
@@ -5874,16 +6222,16 @@
         <v>CH-1003</v>
       </c>
       <c r="G117" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_CH-1003</v>
       </c>
       <c r="H117" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I117" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J117" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K117" t="str">
         <v/>
@@ -5898,21 +6246,24 @@
         <v/>
       </c>
       <c r="O117" t="str">
+        <v/>
+      </c>
+      <c r="P117" t="str">
         <v/>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B118" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C118" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D118" t="str">
-        <v>FLIB3</v>
+        <v>AOB102</v>
       </c>
       <c r="E118" t="str">
         <v>Volume Test</v>
@@ -5921,16 +6272,16 @@
         <v>VT-0001</v>
       </c>
       <c r="G118" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB102_VT-0001</v>
       </c>
       <c r="H118" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I118" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J118" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K118" t="str">
         <v/>
@@ -5945,39 +6296,42 @@
         <v/>
       </c>
       <c r="O118" t="str">
+        <v/>
+      </c>
+      <c r="P118" t="str">
         <v/>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B119" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C119" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D119" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E119" t="str">
-        <v>GAC</v>
+        <v>Case Labeler</v>
       </c>
       <c r="F119" t="str">
-        <v>MCPIB-1001</v>
+        <v>AOB-1001</v>
       </c>
       <c r="G119" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_AOB-1001</v>
       </c>
       <c r="H119" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I119" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J119" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K119" t="str">
         <v/>
@@ -5992,39 +6346,42 @@
         <v/>
       </c>
       <c r="O119" t="str">
+        <v/>
+      </c>
+      <c r="P119" t="str">
         <v/>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B120" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C120" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D120" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E120" t="str">
-        <v>Switch table</v>
+        <v>Case Labeler - D1</v>
       </c>
       <c r="F120" t="str">
-        <v>MCPIB-1002</v>
+        <v>AOB-1002</v>
       </c>
       <c r="G120" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_AOB-1002</v>
       </c>
       <c r="H120" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I120" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J120" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K120" t="str">
         <v/>
@@ -6039,39 +6396,42 @@
         <v/>
       </c>
       <c r="O120" t="str">
+        <v/>
+      </c>
+      <c r="P120" t="str">
         <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B121" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C121" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D121" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E121" t="str">
-        <v>Length</v>
+        <v>Case Labeler - D2</v>
       </c>
       <c r="F121" t="str">
-        <v>MCPIB-1003</v>
+        <v>AOB-1003</v>
       </c>
       <c r="G121" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_AOB-1003</v>
       </c>
       <c r="H121" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I121" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J121" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K121" t="str">
         <v/>
@@ -6086,39 +6446,42 @@
         <v/>
       </c>
       <c r="O121" t="str">
+        <v/>
+      </c>
+      <c r="P121" t="str">
         <v/>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B122" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C122" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D122" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E122" t="str">
-        <v>Width</v>
+        <v>Manual Palletization</v>
       </c>
       <c r="F122" t="str">
-        <v>MCPIB-1004</v>
+        <v>AOB-1004</v>
       </c>
       <c r="G122" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_AOB-1004</v>
       </c>
       <c r="H122" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I122" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J122" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K122" t="str">
         <v/>
@@ -6133,39 +6496,42 @@
         <v/>
       </c>
       <c r="O122" t="str">
+        <v/>
+      </c>
+      <c r="P122" t="str">
         <v/>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B123" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C123" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D123" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E123" t="str">
-        <v>Height</v>
+        <v>Fallen Case</v>
       </c>
       <c r="F123" t="str">
-        <v>MCPIB-1005</v>
+        <v>AOB-1005</v>
       </c>
       <c r="G123" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_AOB-1005</v>
       </c>
       <c r="H123" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I123" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J123" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K123" t="str">
         <v/>
@@ -6180,39 +6546,42 @@
         <v/>
       </c>
       <c r="O123" t="str">
+        <v/>
+      </c>
+      <c r="P123" t="str">
         <v/>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B124" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C124" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D124" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E124" t="str">
-        <v>CIS</v>
+        <v>PBA</v>
       </c>
       <c r="F124" t="str">
-        <v>MCPIB-1006</v>
+        <v>AOB-1006</v>
       </c>
       <c r="G124" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_AOB-1006</v>
       </c>
       <c r="H124" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I124" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J124" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K124" t="str">
         <v/>
@@ -6227,39 +6596,42 @@
         <v/>
       </c>
       <c r="O124" t="str">
+        <v/>
+      </c>
+      <c r="P124" t="str">
         <v/>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B125" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C125" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D125" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E125" t="str">
-        <v>Pallet lift</v>
+        <v>Pallet PNA</v>
       </c>
       <c r="F125" t="str">
-        <v>MCPIB-1007</v>
+        <v>AOB-1007</v>
       </c>
       <c r="G125" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_AOB-1007</v>
       </c>
       <c r="H125" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I125" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J125" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K125" t="str">
         <v/>
@@ -6274,39 +6646,42 @@
         <v/>
       </c>
       <c r="O125" t="str">
+        <v/>
+      </c>
+      <c r="P125" t="str">
         <v/>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B126" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C126" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D126" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E126" t="str">
-        <v>E-Stop</v>
+        <v>Backup printer</v>
       </c>
       <c r="F126" t="str">
-        <v>SA-1001</v>
+        <v>AOB-1008</v>
       </c>
       <c r="G126" t="str">
-        <v>Safety</v>
+        <v>PAL_Phase_2_AOB103_AOB-1008</v>
       </c>
       <c r="H126" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I126" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J126" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K126" t="str">
         <v/>
@@ -6321,39 +6696,42 @@
         <v/>
       </c>
       <c r="O126" t="str">
+        <v/>
+      </c>
+      <c r="P126" t="str">
         <v/>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B127" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C127" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D127" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E127" t="str">
-        <v>Interlocks</v>
+        <v>E-Stop</v>
       </c>
       <c r="F127" t="str">
-        <v>SA-1002</v>
+        <v>SA-1001</v>
       </c>
       <c r="G127" t="str">
+        <v>PAL_Phase_2_AOB103_SA-1001</v>
+      </c>
+      <c r="H127" t="str">
         <v>Safety</v>
       </c>
-      <c r="H127" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I127" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J127" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K127" t="str">
         <v/>
@@ -6368,39 +6746,42 @@
         <v/>
       </c>
       <c r="O127" t="str">
+        <v/>
+      </c>
+      <c r="P127" t="str">
         <v/>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B128" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C128" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D128" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E128" t="str">
-        <v>Cell Hardening - 1</v>
+        <v>Interlocks</v>
       </c>
       <c r="F128" t="str">
-        <v>CH-1001</v>
+        <v>SA-1002</v>
       </c>
       <c r="G128" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_SA-1002</v>
       </c>
       <c r="H128" t="str">
-        <v>DATA_ENTRY</v>
+        <v>Safety</v>
       </c>
       <c r="I128" t="str">
-        <v>1/20/2025, 4:00:00 AM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J128" t="str">
-        <v>Test User</v>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K128" t="str">
         <v/>
@@ -6412,45 +6793,48 @@
         <v/>
       </c>
       <c r="N128" t="str">
-        <v>9999</v>
+        <v/>
       </c>
       <c r="O128" t="str">
-        <v>2025-01-20</v>
+        <v/>
+      </c>
+      <c r="P128" t="str">
+        <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B129" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C129" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D129" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E129" t="str">
-        <v>Cell Hardening - 2</v>
+        <v>Cell Hardening - 1</v>
       </c>
       <c r="F129" t="str">
-        <v>CH-1002</v>
+        <v>CH-1001</v>
       </c>
       <c r="G129" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_CH-1001</v>
       </c>
       <c r="H129" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I129" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J129" t="str">
-        <v/>
+        <v>8/5/2025, 9:54:07 AM</v>
       </c>
       <c r="K129" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L129" t="str">
         <v/>
@@ -6462,42 +6846,45 @@
         <v/>
       </c>
       <c r="O129" t="str">
-        <v/>
+        <v>654876</v>
+      </c>
+      <c r="P129" t="str">
+        <v>0897-03-31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B130" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C130" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D130" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E130" t="str">
-        <v>Cell Hardening - 3</v>
+        <v>Cell Hardening - 2</v>
       </c>
       <c r="F130" t="str">
-        <v>CH-1003</v>
+        <v>CH-1002</v>
       </c>
       <c r="G130" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_CH-1002</v>
       </c>
       <c r="H130" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I130" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J130" t="str">
-        <v/>
+        <v>8/5/2025, 9:54:09 AM</v>
       </c>
       <c r="K130" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L130" t="str">
         <v/>
@@ -6509,42 +6896,45 @@
         <v/>
       </c>
       <c r="O130" t="str">
-        <v/>
+        <v>78</v>
+      </c>
+      <c r="P130" t="str">
+        <v>8678-12-31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B131" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C131" t="str">
-        <v>MCPIB</v>
+        <v>AOB</v>
       </c>
       <c r="D131" t="str">
-        <v>MCPIB1</v>
+        <v>AOB103</v>
       </c>
       <c r="E131" t="str">
-        <v>Volume Test</v>
+        <v>Cell Hardening - 3</v>
       </c>
       <c r="F131" t="str">
-        <v>VT-0001</v>
+        <v>CH-1003</v>
       </c>
       <c r="G131" t="str">
-        <v>Cell</v>
+        <v>PAL_Phase_2_AOB103_CH-1003</v>
       </c>
       <c r="H131" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I131" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J131" t="str">
-        <v/>
+        <v>8/5/2025, 9:54:10 AM</v>
       </c>
       <c r="K131" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L131" t="str">
         <v/>
@@ -6556,59 +6946,65 @@
         <v/>
       </c>
       <c r="O131" t="str">
-        <v/>
+        <v>6</v>
+      </c>
+      <c r="P131" t="str">
+        <v>0876-05-06</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B132" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C132" t="str">
-        <v>AIB</v>
+        <v>AOB</v>
       </c>
       <c r="D132" t="str">
-        <v>SYSTEM</v>
+        <v>AOB103</v>
       </c>
       <c r="E132" t="str">
-        <v>Messaging</v>
+        <v>Volume Test</v>
       </c>
       <c r="F132" t="str">
-        <v>AIB-SYS-101</v>
+        <v>VT-0001</v>
       </c>
       <c r="G132" t="str">
-        <v>System</v>
+        <v>PAL_Phase_2_AOB103_VT-0001</v>
       </c>
       <c r="H132" t="str">
-        <v>NOT RUN</v>
+        <v>Cell</v>
       </c>
       <c r="I132" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>DATA_ENTRY</v>
       </c>
       <c r="J132" t="str">
-        <v/>
+        <v>8/5/2025, 9:54:54 AM</v>
       </c>
       <c r="K132" t="str">
-        <v/>
+        <v>Automation Engineer</v>
       </c>
       <c r="L132" t="str">
-        <v/>
+        <v>87687</v>
       </c>
       <c r="M132" t="str">
-        <v/>
+        <v>2025-08-03T09:54</v>
       </c>
       <c r="N132" t="str">
-        <v/>
+        <v>2025-08-03T09:54</v>
       </c>
       <c r="O132" t="str">
+        <v/>
+      </c>
+      <c r="P132" t="str">
         <v/>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B133" t="str">
         <v>Phase 2</v>
@@ -6620,22 +7016,22 @@
         <v>SYSTEM</v>
       </c>
       <c r="E133" t="str">
-        <v>LPN</v>
+        <v>Messaging</v>
       </c>
       <c r="F133" t="str">
-        <v>AIB-SYS-102</v>
+        <v>AIB-SYS-101</v>
       </c>
       <c r="G133" t="str">
+        <v>PAL_Phase_2_SYSTEM_AIB-SYS-101</v>
+      </c>
+      <c r="H133" t="str">
         <v>System</v>
       </c>
-      <c r="H133" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I133" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J133" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K133" t="str">
         <v/>
@@ -6650,39 +7046,42 @@
         <v/>
       </c>
       <c r="O133" t="str">
+        <v/>
+      </c>
+      <c r="P133" t="str">
         <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B134" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C134" t="str">
-        <v>AOB</v>
+        <v>AIB</v>
       </c>
       <c r="D134" t="str">
         <v>SYSTEM</v>
       </c>
       <c r="E134" t="str">
-        <v>Messaging</v>
+        <v>LPN</v>
       </c>
       <c r="F134" t="str">
-        <v>AOB-SYS-101</v>
+        <v>AIB-SYS-102</v>
       </c>
       <c r="G134" t="str">
+        <v>PAL_Phase_2_SYSTEM_AIB-SYS-102</v>
+      </c>
+      <c r="H134" t="str">
         <v>System</v>
       </c>
-      <c r="H134" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I134" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J134" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K134" t="str">
         <v/>
@@ -6697,18 +7096,21 @@
         <v/>
       </c>
       <c r="O134" t="str">
+        <v/>
+      </c>
+      <c r="P134" t="str">
         <v/>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>MID</v>
+        <v>PAL</v>
       </c>
       <c r="B135" t="str">
         <v>Phase 2</v>
       </c>
       <c r="C135" t="str">
-        <v>FLIB</v>
+        <v>AOB</v>
       </c>
       <c r="D135" t="str">
         <v>SYSTEM</v>
@@ -6717,19 +7119,19 @@
         <v>Messaging</v>
       </c>
       <c r="F135" t="str">
-        <v>FLIB-SYS-101</v>
+        <v>AOB-SYS-101</v>
       </c>
       <c r="G135" t="str">
+        <v>PAL_Phase_2_SYSTEM_AOB-SYS-101</v>
+      </c>
+      <c r="H135" t="str">
         <v>System</v>
       </c>
-      <c r="H135" t="str">
-        <v>NOT RUN</v>
-      </c>
       <c r="I135" t="str">
-        <v>8/4/2025, 11:41:33 PM</v>
+        <v>NOT RUN</v>
       </c>
       <c r="J135" t="str">
-        <v/>
+        <v>8/5/2025, 9:17:44 AM</v>
       </c>
       <c r="K135" t="str">
         <v/>
@@ -6744,12 +7146,15 @@
         <v/>
       </c>
       <c r="O135" t="str">
+        <v/>
+      </c>
+      <c r="P135" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O135"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P135"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/test_status.xlsx
+++ b/backend/data/test_status.xlsx
@@ -1222,10 +1222,10 @@
         <v>false</v>
       </c>
       <c r="Q11" t="str">
-        <v/>
+        <v>5467687</v>
       </c>
       <c r="R11" t="str">
-        <v/>
+        <v>2025-09-09</v>
       </c>
       <c r="S11" t="str">
         <v/>
@@ -1299,10 +1299,10 @@
         <v>false</v>
       </c>
       <c r="Q12" t="str">
-        <v/>
+        <v>6453</v>
       </c>
       <c r="R12" t="str">
-        <v/>
+        <v>2025-09-04</v>
       </c>
       <c r="S12" t="str">
         <v/>
@@ -1438,7 +1438,7 @@
         <v>All</v>
       </c>
       <c r="L14" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M14" t="str">
         <v>8/26/2025, 7:50:49 PM</v>
@@ -1592,7 +1592,7 @@
         <v>All</v>
       </c>
       <c r="L16" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M16" t="str">
         <v>8/26/2025, 7:50:49 PM</v>
@@ -1746,7 +1746,7 @@
         <v>All</v>
       </c>
       <c r="L18" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M18" t="str">
         <v>8/26/2025, 7:50:49 PM</v>
@@ -1900,7 +1900,7 @@
         <v>All</v>
       </c>
       <c r="L20" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M20" t="str">
         <v>8/26/2025, 7:50:49 PM</v>
@@ -2054,7 +2054,7 @@
         <v>All</v>
       </c>
       <c r="L22" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M22" t="str">
         <v>8/26/2025, 7:50:49 PM</v>
@@ -14990,7 +14990,7 @@
         <v>All</v>
       </c>
       <c r="L190" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M190" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
@@ -15067,7 +15067,7 @@
         <v>All</v>
       </c>
       <c r="L191" t="str">
-        <v>NOT RUN</v>
+        <v>FAIL</v>
       </c>
       <c r="M191" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
@@ -15144,7 +15144,7 @@
         <v>All</v>
       </c>
       <c r="L192" t="str">
-        <v>NOT RUN</v>
+        <v>BLOCKED</v>
       </c>
       <c r="M192" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
@@ -15221,7 +15221,7 @@
         <v>First</v>
       </c>
       <c r="L193" t="str">
-        <v>NOT RUN</v>
+        <v>FAIL</v>
       </c>
       <c r="M193" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
@@ -15298,7 +15298,7 @@
         <v>All</v>
       </c>
       <c r="L194" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M194" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
@@ -15375,7 +15375,7 @@
         <v>All</v>
       </c>
       <c r="L195" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M195" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
@@ -15452,7 +15452,7 @@
         <v>All</v>
       </c>
       <c r="L196" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M196" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
@@ -15529,7 +15529,7 @@
         <v>All</v>
       </c>
       <c r="L197" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M197" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
@@ -15606,7 +15606,7 @@
         <v>First</v>
       </c>
       <c r="L198" t="str">
-        <v>NOT RUN</v>
+        <v>FAIL</v>
       </c>
       <c r="M198" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
@@ -15698,10 +15698,10 @@
         <v>false</v>
       </c>
       <c r="Q199" t="str">
-        <v/>
+        <v>78965446677</v>
       </c>
       <c r="R199" t="str">
-        <v/>
+        <v>2025-09-11</v>
       </c>
       <c r="S199" t="str">
         <v/>
@@ -15775,10 +15775,10 @@
         <v>false</v>
       </c>
       <c r="Q200" t="str">
-        <v/>
+        <v>569485798</v>
       </c>
       <c r="R200" t="str">
-        <v/>
+        <v>2025-09-08</v>
       </c>
       <c r="S200" t="str">
         <v/>
@@ -15852,10 +15852,10 @@
         <v>false</v>
       </c>
       <c r="Q201" t="str">
-        <v/>
+        <v>564765</v>
       </c>
       <c r="R201" t="str">
-        <v/>
+        <v>2025-09-10</v>
       </c>
       <c r="S201" t="str">
         <v/>
@@ -15914,13 +15914,13 @@
         <v>All</v>
       </c>
       <c r="L202" t="str">
-        <v>NOT RUN</v>
+        <v>FAIL</v>
       </c>
       <c r="M202" t="str">
-        <v>9/3/2025, 3:51:43 PM</v>
+        <v>9/9/2025, 12:50:44 PM</v>
       </c>
       <c r="N202" t="str">
-        <v/>
+        <v>Unknown</v>
       </c>
       <c r="O202" t="str">
         <v>Single Drive</v>
@@ -15935,16 +15935,16 @@
         <v/>
       </c>
       <c r="S202" t="str">
-        <v/>
+        <v>577848</v>
       </c>
       <c r="T202" t="str">
-        <v/>
+        <v>2025-09-08</v>
       </c>
       <c r="U202" t="str">
-        <v/>
+        <v>17:56</v>
       </c>
       <c r="V202" t="str">
-        <v/>
+        <v>19:59</v>
       </c>
       <c r="W202" t="str">
         <v/>
@@ -15953,7 +15953,7 @@
         <v/>
       </c>
       <c r="Y202" t="str">
-        <v/>
+        <v>dfrythyvr.  gevvtgtevgetrf</v>
       </c>
     </row>
     <row r="203">
@@ -15991,7 +15991,7 @@
         <v>All</v>
       </c>
       <c r="L203" t="str">
-        <v>NOT RUN</v>
+        <v>PASS</v>
       </c>
       <c r="M203" t="str">
         <v>9/3/2025, 3:51:43 PM</v>
